--- a/histogram_via_pil.xlsx
+++ b/histogram_via_pil.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2338,6 +2338,1906 @@
         <v>52.11270838288872</v>
       </c>
     </row>
+    <row r="22" spans="1:31">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>85.31197344159845</v>
+      </c>
+      <c r="C22">
+        <v>75.07071319207422</v>
+      </c>
+      <c r="D22">
+        <v>64.49862724637376</v>
+      </c>
+      <c r="E22">
+        <v>58.98538837429712</v>
+      </c>
+      <c r="F22">
+        <v>64.70852114160338</v>
+      </c>
+      <c r="G22">
+        <v>77.46247411381418</v>
+      </c>
+      <c r="H22">
+        <v>63.65716279414281</v>
+      </c>
+      <c r="I22">
+        <v>46.30365693801445</v>
+      </c>
+      <c r="J22">
+        <v>59.71706292314339</v>
+      </c>
+      <c r="K22">
+        <v>34.30155031724757</v>
+      </c>
+      <c r="L22">
+        <v>61.80865550902506</v>
+      </c>
+      <c r="M22">
+        <v>41.56104320755195</v>
+      </c>
+      <c r="N22">
+        <v>71.54294674645899</v>
+      </c>
+      <c r="O22">
+        <v>62.44382892514947</v>
+      </c>
+      <c r="P22">
+        <v>46.90887664753158</v>
+      </c>
+      <c r="Q22">
+        <v>79.98655485975961</v>
+      </c>
+      <c r="R22">
+        <v>70.37128098521441</v>
+      </c>
+      <c r="S22">
+        <v>58.42001743837466</v>
+      </c>
+      <c r="T22">
+        <v>50.9247811319139</v>
+      </c>
+      <c r="U22">
+        <v>45.45438991450661</v>
+      </c>
+      <c r="V22">
+        <v>72.44133761764296</v>
+      </c>
+      <c r="W22">
+        <v>47.56232205398162</v>
+      </c>
+      <c r="X22">
+        <v>65.928267521097</v>
+      </c>
+      <c r="Y22">
+        <v>67.51824599074436</v>
+      </c>
+      <c r="Z22">
+        <v>52.20282958486701</v>
+      </c>
+      <c r="AA22">
+        <v>63.30839695490639</v>
+      </c>
+      <c r="AB22">
+        <v>70.06096675396365</v>
+      </c>
+      <c r="AC22">
+        <v>59.42031165771516</v>
+      </c>
+      <c r="AD22">
+        <v>49.29864877289573</v>
+      </c>
+      <c r="AE22">
+        <v>65.76855330753952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>103.9938274410233</v>
+      </c>
+      <c r="C23">
+        <v>104.7631505269545</v>
+      </c>
+      <c r="D23">
+        <v>75.0529847563262</v>
+      </c>
+      <c r="E23">
+        <v>75.8711215373368</v>
+      </c>
+      <c r="F23">
+        <v>71.78198691756403</v>
+      </c>
+      <c r="G23">
+        <v>103.3641923008157</v>
+      </c>
+      <c r="H23">
+        <v>69.88472651445379</v>
+      </c>
+      <c r="I23">
+        <v>71.17252732503837</v>
+      </c>
+      <c r="J23">
+        <v>80.6911550295322</v>
+      </c>
+      <c r="K23">
+        <v>70.0802553327255</v>
+      </c>
+      <c r="L23">
+        <v>36.19388616649687</v>
+      </c>
+      <c r="M23">
+        <v>58.58494100449364</v>
+      </c>
+      <c r="N23">
+        <v>60.23646978091152</v>
+      </c>
+      <c r="O23">
+        <v>70.38129042342622</v>
+      </c>
+      <c r="P23">
+        <v>77.18162089621251</v>
+      </c>
+      <c r="Q23">
+        <v>66.36570085518574</v>
+      </c>
+      <c r="R23">
+        <v>77.23509834697349</v>
+      </c>
+      <c r="S23">
+        <v>53.67315242899998</v>
+      </c>
+      <c r="T23">
+        <v>57.42678762999024</v>
+      </c>
+      <c r="U23">
+        <v>63.74758982372066</v>
+      </c>
+      <c r="V23">
+        <v>76.58053359046279</v>
+      </c>
+      <c r="W23">
+        <v>65.07255565904877</v>
+      </c>
+      <c r="X23">
+        <v>62.25069025721723</v>
+      </c>
+      <c r="Y23">
+        <v>78.42424356770466</v>
+      </c>
+      <c r="Z23">
+        <v>41.5053648640751</v>
+      </c>
+      <c r="AA23">
+        <v>60.96090362546583</v>
+      </c>
+      <c r="AB23">
+        <v>60.64475623113126</v>
+      </c>
+      <c r="AC23">
+        <v>53.40446103401226</v>
+      </c>
+      <c r="AD23">
+        <v>59.71041226899487</v>
+      </c>
+      <c r="AE23">
+        <v>62.99576291968638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>94.57568342778885</v>
+      </c>
+      <c r="C24">
+        <v>91.32332955402651</v>
+      </c>
+      <c r="D24">
+        <v>69.14901255621804</v>
+      </c>
+      <c r="E24">
+        <v>68.26106442670424</v>
+      </c>
+      <c r="F24">
+        <v>73.68346221620335</v>
+      </c>
+      <c r="G24">
+        <v>93.10263993303305</v>
+      </c>
+      <c r="H24">
+        <v>69.12458559248897</v>
+      </c>
+      <c r="I24">
+        <v>65.26125381878592</v>
+      </c>
+      <c r="J24">
+        <v>76.87806565703033</v>
+      </c>
+      <c r="K24">
+        <v>48.77136284063972</v>
+      </c>
+      <c r="L24">
+        <v>70.04747274170568</v>
+      </c>
+      <c r="M24">
+        <v>57.70448242265645</v>
+      </c>
+      <c r="N24">
+        <v>75.73887775882784</v>
+      </c>
+      <c r="O24">
+        <v>74.08233735738455</v>
+      </c>
+      <c r="P24">
+        <v>65.31687585022215</v>
+      </c>
+      <c r="Q24">
+        <v>81.66632121525576</v>
+      </c>
+      <c r="R24">
+        <v>81.1258346130668</v>
+      </c>
+      <c r="S24">
+        <v>68.67541408684771</v>
+      </c>
+      <c r="T24">
+        <v>63.60268927752453</v>
+      </c>
+      <c r="U24">
+        <v>58.86770124609929</v>
+      </c>
+      <c r="V24">
+        <v>81.29713376456351</v>
+      </c>
+      <c r="W24">
+        <v>40.37083956892648</v>
+      </c>
+      <c r="X24">
+        <v>72.44133761764296</v>
+      </c>
+      <c r="Y24">
+        <v>82.73064350650247</v>
+      </c>
+      <c r="Z24">
+        <v>65.17254742220838</v>
+      </c>
+      <c r="AA24">
+        <v>71.35790440331984</v>
+      </c>
+      <c r="AB24">
+        <v>75.02263547312459</v>
+      </c>
+      <c r="AC24">
+        <v>71.65631587073582</v>
+      </c>
+      <c r="AD24">
+        <v>67.52873616715578</v>
+      </c>
+      <c r="AE24">
+        <v>72.24390833604357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>97.5491062234811</v>
+      </c>
+      <c r="C25">
+        <v>100.3698628822417</v>
+      </c>
+      <c r="D25">
+        <v>70.95002642705639</v>
+      </c>
+      <c r="E25">
+        <v>72.26228990051912</v>
+      </c>
+      <c r="F25">
+        <v>66.77155160820114</v>
+      </c>
+      <c r="G25">
+        <v>95.07308044341468</v>
+      </c>
+      <c r="H25">
+        <v>65.91248538150164</v>
+      </c>
+      <c r="I25">
+        <v>64.62213887928294</v>
+      </c>
+      <c r="J25">
+        <v>79.29973465697516</v>
+      </c>
+      <c r="K25">
+        <v>54.63331839790318</v>
+      </c>
+      <c r="L25">
+        <v>53.35469949623307</v>
+      </c>
+      <c r="M25">
+        <v>55.08842323937036</v>
+      </c>
+      <c r="N25">
+        <v>74.97581207184976</v>
+      </c>
+      <c r="O25">
+        <v>74.16598782460866</v>
+      </c>
+      <c r="P25">
+        <v>69.40149644159939</v>
+      </c>
+      <c r="Q25">
+        <v>69.2911279794655</v>
+      </c>
+      <c r="R25">
+        <v>82.26038434953567</v>
+      </c>
+      <c r="S25">
+        <v>58.17824622084559</v>
+      </c>
+      <c r="T25">
+        <v>63.34411229546121</v>
+      </c>
+      <c r="U25">
+        <v>56.41496643179006</v>
+      </c>
+      <c r="V25">
+        <v>79.35398343813624</v>
+      </c>
+      <c r="W25">
+        <v>50.94822228661827</v>
+      </c>
+      <c r="X25">
+        <v>62.89997019077195</v>
+      </c>
+      <c r="Y25">
+        <v>82.1688429394013</v>
+      </c>
+      <c r="Z25">
+        <v>45.6523605176483</v>
+      </c>
+      <c r="AA25">
+        <v>63.96178058028091</v>
+      </c>
+      <c r="AB25">
+        <v>63.92830456847734</v>
+      </c>
+      <c r="AC25">
+        <v>60.95191068922013</v>
+      </c>
+      <c r="AD25">
+        <v>64.15380688236669</v>
+      </c>
+      <c r="AE25">
+        <v>68.46119262643131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>89.74630041121472</v>
+      </c>
+      <c r="C26">
+        <v>84.47995016077286</v>
+      </c>
+      <c r="D26">
+        <v>69.78185876357837</v>
+      </c>
+      <c r="E26">
+        <v>66.45557726782606</v>
+      </c>
+      <c r="F26">
+        <v>73.57939306173525</v>
+      </c>
+      <c r="G26">
+        <v>88.7111857612481</v>
+      </c>
+      <c r="H26">
+        <v>69.23422278155989</v>
+      </c>
+      <c r="I26">
+        <v>58.17303123011555</v>
+      </c>
+      <c r="J26">
+        <v>67.41176717878464</v>
+      </c>
+      <c r="K26">
+        <v>47.15969103305633</v>
+      </c>
+      <c r="L26">
+        <v>65.12108113609089</v>
+      </c>
+      <c r="M26">
+        <v>33.58330748551528</v>
+      </c>
+      <c r="N26">
+        <v>66.19712906035528</v>
+      </c>
+      <c r="O26">
+        <v>67.51211311066086</v>
+      </c>
+      <c r="P26">
+        <v>34.93777951587651</v>
+      </c>
+      <c r="Q26">
+        <v>82.19140516704489</v>
+      </c>
+      <c r="R26">
+        <v>69.30625347566648</v>
+      </c>
+      <c r="S26">
+        <v>60.01800944994205</v>
+      </c>
+      <c r="T26">
+        <v>48.18051451745473</v>
+      </c>
+      <c r="U26">
+        <v>29.28554642083133</v>
+      </c>
+      <c r="V26">
+        <v>73.59220407081175</v>
+      </c>
+      <c r="W26">
+        <v>45.1099928877553</v>
+      </c>
+      <c r="X26">
+        <v>68.69820018263458</v>
+      </c>
+      <c r="Y26">
+        <v>68.82492129793297</v>
+      </c>
+      <c r="Z26">
+        <v>55.59835504161371</v>
+      </c>
+      <c r="AA26">
+        <v>65.63406683397477</v>
+      </c>
+      <c r="AB26">
+        <v>74.42685517226516</v>
+      </c>
+      <c r="AC26">
+        <v>66.62705203218884</v>
+      </c>
+      <c r="AD26">
+        <v>51.27865052826566</v>
+      </c>
+      <c r="AE26">
+        <v>65.72825210668545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>101.3676785272308</v>
+      </c>
+      <c r="C27">
+        <v>105.2197848553208</v>
+      </c>
+      <c r="D27">
+        <v>69.88985009165017</v>
+      </c>
+      <c r="E27">
+        <v>71.88615855411017</v>
+      </c>
+      <c r="F27">
+        <v>63.71845624830114</v>
+      </c>
+      <c r="G27">
+        <v>98.79833996159383</v>
+      </c>
+      <c r="H27">
+        <v>63.1923732871829</v>
+      </c>
+      <c r="I27">
+        <v>68.97000782344936</v>
+      </c>
+      <c r="J27">
+        <v>83.21273565386491</v>
+      </c>
+      <c r="K27">
+        <v>68.80098488272776</v>
+      </c>
+      <c r="L27">
+        <v>42.93375468866736</v>
+      </c>
+      <c r="M27">
+        <v>56.26053142153328</v>
+      </c>
+      <c r="N27">
+        <v>63.92512710194638</v>
+      </c>
+      <c r="O27">
+        <v>72.03288817732263</v>
+      </c>
+      <c r="P27">
+        <v>70.94516294881092</v>
+      </c>
+      <c r="Q27">
+        <v>67.26854607962527</v>
+      </c>
+      <c r="R27">
+        <v>83.43710205897614</v>
+      </c>
+      <c r="S27">
+        <v>59.54958980407282</v>
+      </c>
+      <c r="T27">
+        <v>57.75444156801564</v>
+      </c>
+      <c r="U27">
+        <v>57.30230961750146</v>
+      </c>
+      <c r="V27">
+        <v>85.41851624013769</v>
+      </c>
+      <c r="W27">
+        <v>62.05919553136344</v>
+      </c>
+      <c r="X27">
+        <v>60.88002631542357</v>
+      </c>
+      <c r="Y27">
+        <v>85.8589110352948</v>
+      </c>
+      <c r="Z27">
+        <v>41.87888663555101</v>
+      </c>
+      <c r="AA27">
+        <v>59.45792454893348</v>
+      </c>
+      <c r="AB27">
+        <v>50.19866781100869</v>
+      </c>
+      <c r="AC27">
+        <v>65.01245874189551</v>
+      </c>
+      <c r="AD27">
+        <v>67.36448588338912</v>
+      </c>
+      <c r="AE27">
+        <v>68.55289928223313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>103.995430087897</v>
+      </c>
+      <c r="C28">
+        <v>107.9703976598833</v>
+      </c>
+      <c r="D28">
+        <v>76.84057494796178</v>
+      </c>
+      <c r="E28">
+        <v>79.02692710926658</v>
+      </c>
+      <c r="F28">
+        <v>69.52133590368739</v>
+      </c>
+      <c r="G28">
+        <v>100.1697647538085</v>
+      </c>
+      <c r="H28">
+        <v>72.06104544643613</v>
+      </c>
+      <c r="I28">
+        <v>71.64768401700086</v>
+      </c>
+      <c r="J28">
+        <v>84.4671872928575</v>
+      </c>
+      <c r="K28">
+        <v>72.03142398749776</v>
+      </c>
+      <c r="L28">
+        <v>50.60434249317608</v>
+      </c>
+      <c r="M28">
+        <v>59.17862261830702</v>
+      </c>
+      <c r="N28">
+        <v>73.53115482002623</v>
+      </c>
+      <c r="O28">
+        <v>78.47919708432292</v>
+      </c>
+      <c r="P28">
+        <v>76.33978661768275</v>
+      </c>
+      <c r="Q28">
+        <v>70.64748904478724</v>
+      </c>
+      <c r="R28">
+        <v>87.93042941250012</v>
+      </c>
+      <c r="S28">
+        <v>58.59031934401223</v>
+      </c>
+      <c r="T28">
+        <v>65.04779893150369</v>
+      </c>
+      <c r="U28">
+        <v>62.68834122067675</v>
+      </c>
+      <c r="V28">
+        <v>86.25443829160329</v>
+      </c>
+      <c r="W28">
+        <v>62.85484683644797</v>
+      </c>
+      <c r="X28">
+        <v>66.40653676408671</v>
+      </c>
+      <c r="Y28">
+        <v>87.06362915037101</v>
+      </c>
+      <c r="Z28">
+        <v>41.4395267226835</v>
+      </c>
+      <c r="AA28">
+        <v>65.51900169670881</v>
+      </c>
+      <c r="AB28">
+        <v>61.10985241759303</v>
+      </c>
+      <c r="AC28">
+        <v>60.59958659787485</v>
+      </c>
+      <c r="AD28">
+        <v>68.88520795497391</v>
+      </c>
+      <c r="AE28">
+        <v>74.13877050279878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>93.2344714505674</v>
+      </c>
+      <c r="C29">
+        <v>87.37914272487075</v>
+      </c>
+      <c r="D29">
+        <v>70.89662001228737</v>
+      </c>
+      <c r="E29">
+        <v>67.70760897048426</v>
+      </c>
+      <c r="F29">
+        <v>67.32688062109121</v>
+      </c>
+      <c r="G29">
+        <v>89.08757687897156</v>
+      </c>
+      <c r="H29">
+        <v>65.13161754606335</v>
+      </c>
+      <c r="I29">
+        <v>61.71203286231948</v>
+      </c>
+      <c r="J29">
+        <v>70.97419205246369</v>
+      </c>
+      <c r="K29">
+        <v>52.97016652481533</v>
+      </c>
+      <c r="L29">
+        <v>57.80636228680485</v>
+      </c>
+      <c r="M29">
+        <v>28.82815464090617</v>
+      </c>
+      <c r="N29">
+        <v>59.64788170309711</v>
+      </c>
+      <c r="O29">
+        <v>64.00246170395845</v>
+      </c>
+      <c r="P29">
+        <v>57.09396950787944</v>
+      </c>
+      <c r="Q29">
+        <v>75.07596846972183</v>
+      </c>
+      <c r="R29">
+        <v>74.2170591912668</v>
+      </c>
+      <c r="S29">
+        <v>56.33371085918863</v>
+      </c>
+      <c r="T29">
+        <v>46.26871805910915</v>
+      </c>
+      <c r="U29">
+        <v>41.06353055530743</v>
+      </c>
+      <c r="V29">
+        <v>74.505417867875</v>
+      </c>
+      <c r="W29">
+        <v>54.26307926051869</v>
+      </c>
+      <c r="X29">
+        <v>62.41085308929316</v>
+      </c>
+      <c r="Y29">
+        <v>76.03639821931775</v>
+      </c>
+      <c r="Z29">
+        <v>46.33542224008179</v>
+      </c>
+      <c r="AA29">
+        <v>60.1882679944079</v>
+      </c>
+      <c r="AB29">
+        <v>66.4659804900221</v>
+      </c>
+      <c r="AC29">
+        <v>59.94754651637825</v>
+      </c>
+      <c r="AD29">
+        <v>54.26382312369817</v>
+      </c>
+      <c r="AE29">
+        <v>62.61664115872074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>97.51141760070972</v>
+      </c>
+      <c r="C30">
+        <v>92.76240932259863</v>
+      </c>
+      <c r="D30">
+        <v>76.5899015591046</v>
+      </c>
+      <c r="E30">
+        <v>71.71413156879659</v>
+      </c>
+      <c r="F30">
+        <v>68.77842215525642</v>
+      </c>
+      <c r="G30">
+        <v>95.03166961159141</v>
+      </c>
+      <c r="H30">
+        <v>69.84771381369615</v>
+      </c>
+      <c r="I30">
+        <v>67.77882228247995</v>
+      </c>
+      <c r="J30">
+        <v>75.54691216389986</v>
+      </c>
+      <c r="K30">
+        <v>65.65120508541078</v>
+      </c>
+      <c r="L30">
+        <v>48.99194768020557</v>
+      </c>
+      <c r="M30">
+        <v>56.27339791144658</v>
+      </c>
+      <c r="N30">
+        <v>50.6412525351944</v>
+      </c>
+      <c r="O30">
+        <v>66.17596098659996</v>
+      </c>
+      <c r="P30">
+        <v>74.18155866408668</v>
+      </c>
+      <c r="Q30">
+        <v>73.92493377293843</v>
+      </c>
+      <c r="R30">
+        <v>77.33493847112916</v>
+      </c>
+      <c r="S30">
+        <v>46.72085767263553</v>
+      </c>
+      <c r="T30">
+        <v>48.28639063787367</v>
+      </c>
+      <c r="U30">
+        <v>65.74744529257391</v>
+      </c>
+      <c r="V30">
+        <v>76.86627660532717</v>
+      </c>
+      <c r="W30">
+        <v>62.36385170914318</v>
+      </c>
+      <c r="X30">
+        <v>57.45439767763648</v>
+      </c>
+      <c r="Y30">
+        <v>79.59855330029561</v>
+      </c>
+      <c r="Z30">
+        <v>46.33530983494121</v>
+      </c>
+      <c r="AA30">
+        <v>58.43800133474792</v>
+      </c>
+      <c r="AB30">
+        <v>67.43816612275278</v>
+      </c>
+      <c r="AC30">
+        <v>58.97642537489026</v>
+      </c>
+      <c r="AD30">
+        <v>55.40593567780742</v>
+      </c>
+      <c r="AE30">
+        <v>60.92592838849482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>94.91704162934423</v>
+      </c>
+      <c r="C31">
+        <v>84.44424627626601</v>
+      </c>
+      <c r="D31">
+        <v>58.42710469037466</v>
+      </c>
+      <c r="E31">
+        <v>57.23557860573555</v>
+      </c>
+      <c r="F31">
+        <v>58.90129013159785</v>
+      </c>
+      <c r="G31">
+        <v>88.73956804886983</v>
+      </c>
+      <c r="H31">
+        <v>61.77034499525912</v>
+      </c>
+      <c r="I31">
+        <v>59.80436856952843</v>
+      </c>
+      <c r="J31">
+        <v>53.84120169535595</v>
+      </c>
+      <c r="K31">
+        <v>64.17361298981589</v>
+      </c>
+      <c r="L31">
+        <v>51.70977704135521</v>
+      </c>
+      <c r="M31">
+        <v>61.48676602191185</v>
+      </c>
+      <c r="N31">
+        <v>66.85461137797452</v>
+      </c>
+      <c r="O31">
+        <v>38.03322286720739</v>
+      </c>
+      <c r="P31">
+        <v>71.03168307171103</v>
+      </c>
+      <c r="Q31">
+        <v>49.87016998333439</v>
+      </c>
+      <c r="R31">
+        <v>47.24785048020703</v>
+      </c>
+      <c r="S31">
+        <v>59.72011543441624</v>
+      </c>
+      <c r="T31">
+        <v>51.53199855429634</v>
+      </c>
+      <c r="U31">
+        <v>69.00860453595624</v>
+      </c>
+      <c r="V31">
+        <v>46.23946952189943</v>
+      </c>
+      <c r="W31">
+        <v>73.41576806109161</v>
+      </c>
+      <c r="X31">
+        <v>44.47087647176146</v>
+      </c>
+      <c r="Y31">
+        <v>58.43858064954464</v>
+      </c>
+      <c r="Z31">
+        <v>65.1925034033822</v>
+      </c>
+      <c r="AA31">
+        <v>42.16408300714404</v>
+      </c>
+      <c r="AB31">
+        <v>46.12672196424396</v>
+      </c>
+      <c r="AC31">
+        <v>62.50029166598612</v>
+      </c>
+      <c r="AD31">
+        <v>51.00975192712338</v>
+      </c>
+      <c r="AE31">
+        <v>39.11245139551684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>116.8216344297294</v>
+      </c>
+      <c r="C32">
+        <v>105.0424889231337</v>
+      </c>
+      <c r="D32">
+        <v>113.0999051355334</v>
+      </c>
+      <c r="E32">
+        <v>110.1964155496902</v>
+      </c>
+      <c r="F32">
+        <v>107.9068126131679</v>
+      </c>
+      <c r="G32">
+        <v>77.62478193742855</v>
+      </c>
+      <c r="H32">
+        <v>108.6703611654684</v>
+      </c>
+      <c r="I32">
+        <v>91.32934621011292</v>
+      </c>
+      <c r="J32">
+        <v>109.6197024565688</v>
+      </c>
+      <c r="K32">
+        <v>103.9862896611856</v>
+      </c>
+      <c r="L32">
+        <v>119.0032825177524</v>
+      </c>
+      <c r="M32">
+        <v>115.9887521486459</v>
+      </c>
+      <c r="N32">
+        <v>125.173119701609</v>
+      </c>
+      <c r="O32">
+        <v>115.5638802423433</v>
+      </c>
+      <c r="P32">
+        <v>114.8276561852588</v>
+      </c>
+      <c r="Q32">
+        <v>114.9907604983983</v>
+      </c>
+      <c r="R32">
+        <v>119.9678342306804</v>
+      </c>
+      <c r="S32">
+        <v>114.4854999006424</v>
+      </c>
+      <c r="T32">
+        <v>114.6418449091198</v>
+      </c>
+      <c r="U32">
+        <v>117.0869290669686</v>
+      </c>
+      <c r="V32">
+        <v>117.5549295365079</v>
+      </c>
+      <c r="W32">
+        <v>116.2302738639981</v>
+      </c>
+      <c r="X32">
+        <v>114.8715995144144</v>
+      </c>
+      <c r="Y32">
+        <v>113.9303972461549</v>
+      </c>
+      <c r="Z32">
+        <v>109.9062810989436</v>
+      </c>
+      <c r="AA32">
+        <v>114.0633162071254</v>
+      </c>
+      <c r="AB32">
+        <v>113.439376706239</v>
+      </c>
+      <c r="AC32">
+        <v>114.2809039166212</v>
+      </c>
+      <c r="AD32">
+        <v>112.9234622801362</v>
+      </c>
+      <c r="AE32">
+        <v>117.6018950917317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>101.8601471790284</v>
+      </c>
+      <c r="C33">
+        <v>106.2005522192171</v>
+      </c>
+      <c r="D33">
+        <v>76.00409459912889</v>
+      </c>
+      <c r="E33">
+        <v>78.23389078057326</v>
+      </c>
+      <c r="F33">
+        <v>71.41133050854044</v>
+      </c>
+      <c r="G33">
+        <v>99.74114935672237</v>
+      </c>
+      <c r="H33">
+        <v>71.33750109514631</v>
+      </c>
+      <c r="I33">
+        <v>70.49383099487028</v>
+      </c>
+      <c r="J33">
+        <v>86.5593335762624</v>
+      </c>
+      <c r="K33">
+        <v>64.79597386540823</v>
+      </c>
+      <c r="L33">
+        <v>58.92332588485933</v>
+      </c>
+      <c r="M33">
+        <v>64.3427508219328</v>
+      </c>
+      <c r="N33">
+        <v>82.26567099951231</v>
+      </c>
+      <c r="O33">
+        <v>82.55037918850928</v>
+      </c>
+      <c r="P33">
+        <v>77.78395560782442</v>
+      </c>
+      <c r="Q33">
+        <v>73.2850278876934</v>
+      </c>
+      <c r="R33">
+        <v>89.81775529741692</v>
+      </c>
+      <c r="S33">
+        <v>64.78025756998295</v>
+      </c>
+      <c r="T33">
+        <v>71.38727638148599</v>
+      </c>
+      <c r="U33">
+        <v>66.46255211269977</v>
+      </c>
+      <c r="V33">
+        <v>87.35987291562031</v>
+      </c>
+      <c r="W33">
+        <v>60.81225376791534</v>
+      </c>
+      <c r="X33">
+        <v>68.49828921221318</v>
+      </c>
+      <c r="Y33">
+        <v>89.7690033270579</v>
+      </c>
+      <c r="Z33">
+        <v>49.35556051922282</v>
+      </c>
+      <c r="AA33">
+        <v>70.75364389909541</v>
+      </c>
+      <c r="AB33">
+        <v>68.01968158800314</v>
+      </c>
+      <c r="AC33">
+        <v>66.73907526079955</v>
+      </c>
+      <c r="AD33">
+        <v>71.68781785747609</v>
+      </c>
+      <c r="AE33">
+        <v>76.13739978376812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>118.4008023621462</v>
+      </c>
+      <c r="C34">
+        <v>109.2851654884291</v>
+      </c>
+      <c r="D34">
+        <v>117.2359177755122</v>
+      </c>
+      <c r="E34">
+        <v>113.8459874311197</v>
+      </c>
+      <c r="F34">
+        <v>112.6908566240698</v>
+      </c>
+      <c r="G34">
+        <v>79.70659085044348</v>
+      </c>
+      <c r="H34">
+        <v>113.7888784291623</v>
+      </c>
+      <c r="I34">
+        <v>96.68587722189145</v>
+      </c>
+      <c r="J34">
+        <v>115.0499891351581</v>
+      </c>
+      <c r="K34">
+        <v>107.9949844514395</v>
+      </c>
+      <c r="L34">
+        <v>124.2913454013057</v>
+      </c>
+      <c r="M34">
+        <v>120.7297688365771</v>
+      </c>
+      <c r="N34">
+        <v>130.1065368745937</v>
+      </c>
+      <c r="O34">
+        <v>120.2909775121698</v>
+      </c>
+      <c r="P34">
+        <v>120.7551650896695</v>
+      </c>
+      <c r="Q34">
+        <v>121.6778854702037</v>
+      </c>
+      <c r="R34">
+        <v>125.461180500185</v>
+      </c>
+      <c r="S34">
+        <v>119.4698467013051</v>
+      </c>
+      <c r="T34">
+        <v>120.114073384429</v>
+      </c>
+      <c r="U34">
+        <v>122.1290940971888</v>
+      </c>
+      <c r="V34">
+        <v>121.4366475780685</v>
+      </c>
+      <c r="W34">
+        <v>120.6392910359915</v>
+      </c>
+      <c r="X34">
+        <v>119.3242802373711</v>
+      </c>
+      <c r="Y34">
+        <v>119.6049377987102</v>
+      </c>
+      <c r="Z34">
+        <v>115.4375056397761</v>
+      </c>
+      <c r="AA34">
+        <v>119.1886088481893</v>
+      </c>
+      <c r="AB34">
+        <v>118.6548083377436</v>
+      </c>
+      <c r="AC34">
+        <v>118.7871981212622</v>
+      </c>
+      <c r="AD34">
+        <v>118.2735397641135</v>
+      </c>
+      <c r="AE34">
+        <v>121.6291965702863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>108.9290551804247</v>
+      </c>
+      <c r="C35">
+        <v>114.1090829535493</v>
+      </c>
+      <c r="D35">
+        <v>79.87069628468254</v>
+      </c>
+      <c r="E35">
+        <v>83.14149272475206</v>
+      </c>
+      <c r="F35">
+        <v>72.81612115459049</v>
+      </c>
+      <c r="G35">
+        <v>106.8581005157463</v>
+      </c>
+      <c r="H35">
+        <v>73.43846630569931</v>
+      </c>
+      <c r="I35">
+        <v>79.99135695498607</v>
+      </c>
+      <c r="J35">
+        <v>94.57382477902294</v>
+      </c>
+      <c r="K35">
+        <v>87.10595798604517</v>
+      </c>
+      <c r="L35">
+        <v>55.85448915112673</v>
+      </c>
+      <c r="M35">
+        <v>80.13564346885016</v>
+      </c>
+      <c r="N35">
+        <v>75.29329803619089</v>
+      </c>
+      <c r="O35">
+        <v>83.16377541734542</v>
+      </c>
+      <c r="P35">
+        <v>90.78666614652175</v>
+      </c>
+      <c r="Q35">
+        <v>74.48047493023479</v>
+      </c>
+      <c r="R35">
+        <v>91.96933932023215</v>
+      </c>
+      <c r="S35">
+        <v>74.14523332622267</v>
+      </c>
+      <c r="T35">
+        <v>74.40715341394716</v>
+      </c>
+      <c r="U35">
+        <v>83.04927628623062</v>
+      </c>
+      <c r="V35">
+        <v>97.06423721347288</v>
+      </c>
+      <c r="W35">
+        <v>84.00677366042177</v>
+      </c>
+      <c r="X35">
+        <v>73.28605838880044</v>
+      </c>
+      <c r="Y35">
+        <v>95.51798205486406</v>
+      </c>
+      <c r="Z35">
+        <v>59.51800760414168</v>
+      </c>
+      <c r="AA35">
+        <v>70.16587489656207</v>
+      </c>
+      <c r="AB35">
+        <v>55.89992918898318</v>
+      </c>
+      <c r="AC35">
+        <v>79.44765375704937</v>
+      </c>
+      <c r="AD35">
+        <v>81.71694349501006</v>
+      </c>
+      <c r="AE35">
+        <v>79.79766078442817</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>116.0986245611894</v>
+      </c>
+      <c r="C36">
+        <v>106.6796704313119</v>
+      </c>
+      <c r="D36">
+        <v>113.4203556833311</v>
+      </c>
+      <c r="E36">
+        <v>110.6212923107482</v>
+      </c>
+      <c r="F36">
+        <v>108.7300628276283</v>
+      </c>
+      <c r="G36">
+        <v>81.29226464840715</v>
+      </c>
+      <c r="H36">
+        <v>110.6107688586423</v>
+      </c>
+      <c r="I36">
+        <v>92.49985923412713</v>
+      </c>
+      <c r="J36">
+        <v>110.4910677008176</v>
+      </c>
+      <c r="K36">
+        <v>103.9532021111744</v>
+      </c>
+      <c r="L36">
+        <v>119.8789537060891</v>
+      </c>
+      <c r="M36">
+        <v>116.6917011830747</v>
+      </c>
+      <c r="N36">
+        <v>126.1482779146562</v>
+      </c>
+      <c r="O36">
+        <v>116.1461453657991</v>
+      </c>
+      <c r="P36">
+        <v>116.8885241729629</v>
+      </c>
+      <c r="Q36">
+        <v>118.3725030535667</v>
+      </c>
+      <c r="R36">
+        <v>121.2921747956836</v>
+      </c>
+      <c r="S36">
+        <v>115.5251145133963</v>
+      </c>
+      <c r="T36">
+        <v>116.1845581929888</v>
+      </c>
+      <c r="U36">
+        <v>118.4442005580405</v>
+      </c>
+      <c r="V36">
+        <v>118.2308608542344</v>
+      </c>
+      <c r="W36">
+        <v>116.5949965871892</v>
+      </c>
+      <c r="X36">
+        <v>115.8567609701739</v>
+      </c>
+      <c r="Y36">
+        <v>114.7680405208697</v>
+      </c>
+      <c r="Z36">
+        <v>111.1992042275184</v>
+      </c>
+      <c r="AA36">
+        <v>115.2870850493093</v>
+      </c>
+      <c r="AB36">
+        <v>115.210043688329</v>
+      </c>
+      <c r="AC36">
+        <v>114.2337812156865</v>
+      </c>
+      <c r="AD36">
+        <v>113.5547316642214</v>
+      </c>
+      <c r="AE36">
+        <v>118.1894004342183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>101.4007237194752</v>
+      </c>
+      <c r="C37">
+        <v>104.8120714063986</v>
+      </c>
+      <c r="D37">
+        <v>71.71231588785848</v>
+      </c>
+      <c r="E37">
+        <v>75.53674257715028</v>
+      </c>
+      <c r="F37">
+        <v>62.3842469765672</v>
+      </c>
+      <c r="G37">
+        <v>95.3870405243815</v>
+      </c>
+      <c r="H37">
+        <v>67.80162163129532</v>
+      </c>
+      <c r="I37">
+        <v>66.81697248828324</v>
+      </c>
+      <c r="J37">
+        <v>79.09119209284096</v>
+      </c>
+      <c r="K37">
+        <v>73.59202713836149</v>
+      </c>
+      <c r="L37">
+        <v>47.75452639977352</v>
+      </c>
+      <c r="M37">
+        <v>66.96889825384119</v>
+      </c>
+      <c r="N37">
+        <v>74.7632548170111</v>
+      </c>
+      <c r="O37">
+        <v>71.99444784727037</v>
+      </c>
+      <c r="P37">
+        <v>82.77002841709472</v>
+      </c>
+      <c r="Q37">
+        <v>59.4330418061648</v>
+      </c>
+      <c r="R37">
+        <v>82.46667571914529</v>
+      </c>
+      <c r="S37">
+        <v>63.90074089946063</v>
+      </c>
+      <c r="T37">
+        <v>68.65212730377212</v>
+      </c>
+      <c r="U37">
+        <v>71.51758961961735</v>
+      </c>
+      <c r="V37">
+        <v>80.58201373445566</v>
+      </c>
+      <c r="W37">
+        <v>73.68994730174077</v>
+      </c>
+      <c r="X37">
+        <v>61.44412265085517</v>
+      </c>
+      <c r="Y37">
+        <v>81.79546072877964</v>
+      </c>
+      <c r="Z37">
+        <v>44.61895967523223</v>
+      </c>
+      <c r="AA37">
+        <v>58.36177134192096</v>
+      </c>
+      <c r="AB37">
+        <v>51.04376696359051</v>
+      </c>
+      <c r="AC37">
+        <v>62.92840674131199</v>
+      </c>
+      <c r="AD37">
+        <v>69.30129342828555</v>
+      </c>
+      <c r="AE37">
+        <v>70.01837556432359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>119.2067094728033</v>
+      </c>
+      <c r="C38">
+        <v>100.5839719670419</v>
+      </c>
+      <c r="D38">
+        <v>112.1294708324563</v>
+      </c>
+      <c r="E38">
+        <v>109.1865877179977</v>
+      </c>
+      <c r="F38">
+        <v>110.4596457233742</v>
+      </c>
+      <c r="G38">
+        <v>91.6622678868828</v>
+      </c>
+      <c r="H38">
+        <v>109.9813667930467</v>
+      </c>
+      <c r="I38">
+        <v>91.73864598230489</v>
+      </c>
+      <c r="J38">
+        <v>108.3556307181742</v>
+      </c>
+      <c r="K38">
+        <v>103.6353156304999</v>
+      </c>
+      <c r="L38">
+        <v>118.4869454834582</v>
+      </c>
+      <c r="M38">
+        <v>113.9502244220402</v>
+      </c>
+      <c r="N38">
+        <v>122.2547822002613</v>
+      </c>
+      <c r="O38">
+        <v>113.7574173405849</v>
+      </c>
+      <c r="P38">
+        <v>111.9918035505277</v>
+      </c>
+      <c r="Q38">
+        <v>117.1153277756588</v>
+      </c>
+      <c r="R38">
+        <v>115.4181483057727</v>
+      </c>
+      <c r="S38">
+        <v>113.8063619523677</v>
+      </c>
+      <c r="T38">
+        <v>111.540771693583</v>
+      </c>
+      <c r="U38">
+        <v>115.7017425502601</v>
+      </c>
+      <c r="V38">
+        <v>116.3806053966897</v>
+      </c>
+      <c r="W38">
+        <v>115.4236647998725</v>
+      </c>
+      <c r="X38">
+        <v>115.5402730111886</v>
+      </c>
+      <c r="Y38">
+        <v>109.7174401208243</v>
+      </c>
+      <c r="Z38">
+        <v>110.1310653834784</v>
+      </c>
+      <c r="AA38">
+        <v>113.2947161536377</v>
+      </c>
+      <c r="AB38">
+        <v>113.986978422976</v>
+      </c>
+      <c r="AC38">
+        <v>113.0459438311108</v>
+      </c>
+      <c r="AD38">
+        <v>109.3657138915117</v>
+      </c>
+      <c r="AE38">
+        <v>115.9411443721914</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>81.57540606702489</v>
+      </c>
+      <c r="C39">
+        <v>68.83742547359927</v>
+      </c>
+      <c r="D39">
+        <v>55.98383788350586</v>
+      </c>
+      <c r="E39">
+        <v>51.13857297415849</v>
+      </c>
+      <c r="F39">
+        <v>44.6689209630141</v>
+      </c>
+      <c r="G39">
+        <v>70.4677268033625</v>
+      </c>
+      <c r="H39">
+        <v>50.34130903972734</v>
+      </c>
+      <c r="I39">
+        <v>43.40968833874147</v>
+      </c>
+      <c r="J39">
+        <v>44.57165929713634</v>
+      </c>
+      <c r="K39">
+        <v>48.74740911918636</v>
+      </c>
+      <c r="L39">
+        <v>50.11954459090785</v>
+      </c>
+      <c r="M39">
+        <v>52.49761899362675</v>
+      </c>
+      <c r="N39">
+        <v>55.25923753847255</v>
+      </c>
+      <c r="O39">
+        <v>37.62524224728217</v>
+      </c>
+      <c r="P39">
+        <v>65.95433236970361</v>
+      </c>
+      <c r="Q39">
+        <v>55.40826220730383</v>
+      </c>
+      <c r="R39">
+        <v>53.56538061098792</v>
+      </c>
+      <c r="S39">
+        <v>47.14538683688999</v>
+      </c>
+      <c r="T39">
+        <v>44.06396274167815</v>
+      </c>
+      <c r="U39">
+        <v>61.91980700874317</v>
+      </c>
+      <c r="V39">
+        <v>48.97054812163464</v>
+      </c>
+      <c r="W39">
+        <v>59.41154577044207</v>
+      </c>
+      <c r="X39">
+        <v>41.5652098114116</v>
+      </c>
+      <c r="Y39">
+        <v>58.16266700670916</v>
+      </c>
+      <c r="Z39">
+        <v>52.27416705856408</v>
+      </c>
+      <c r="AA39">
+        <v>34.63785862318858</v>
+      </c>
+      <c r="AB39">
+        <v>46.58999467875766</v>
+      </c>
+      <c r="AC39">
+        <v>50.21015729743667</v>
+      </c>
+      <c r="AD39">
+        <v>45.86245287087612</v>
+      </c>
+      <c r="AE39">
+        <v>39.01011487422205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>117.7006819047083</v>
+      </c>
+      <c r="C40">
+        <v>99.33034898341324</v>
+      </c>
+      <c r="D40">
+        <v>111.6189808007581</v>
+      </c>
+      <c r="E40">
+        <v>108.7344816514062</v>
+      </c>
+      <c r="F40">
+        <v>110.4249250056345</v>
+      </c>
+      <c r="G40">
+        <v>90.2026942040351</v>
+      </c>
+      <c r="H40">
+        <v>109.8537261354085</v>
+      </c>
+      <c r="I40">
+        <v>91.28210051811911</v>
+      </c>
+      <c r="J40">
+        <v>108.3413658881039</v>
+      </c>
+      <c r="K40">
+        <v>103.6257664828911</v>
+      </c>
+      <c r="L40">
+        <v>118.9816052834779</v>
+      </c>
+      <c r="M40">
+        <v>114.0867497053595</v>
+      </c>
+      <c r="N40">
+        <v>122.3424369342053</v>
+      </c>
+      <c r="O40">
+        <v>113.6792133226944</v>
+      </c>
+      <c r="P40">
+        <v>112.3120304664643</v>
+      </c>
+      <c r="Q40">
+        <v>118.2778112115709</v>
+      </c>
+      <c r="R40">
+        <v>115.7436553336726</v>
+      </c>
+      <c r="S40">
+        <v>113.8275033585176</v>
+      </c>
+      <c r="T40">
+        <v>111.6020296447754</v>
+      </c>
+      <c r="U40">
+        <v>115.8437120650059</v>
+      </c>
+      <c r="V40">
+        <v>116.12561670091</v>
+      </c>
+      <c r="W40">
+        <v>115.0992212361433</v>
+      </c>
+      <c r="X40">
+        <v>115.4088068924263</v>
+      </c>
+      <c r="Y40">
+        <v>110.1885221639108</v>
+      </c>
+      <c r="Z40">
+        <v>110.5822068832354</v>
+      </c>
+      <c r="AA40">
+        <v>113.4117567208092</v>
+      </c>
+      <c r="AB40">
+        <v>114.1629865586916</v>
+      </c>
+      <c r="AC40">
+        <v>113.293061165869</v>
+      </c>
+      <c r="AD40">
+        <v>109.8417659256563</v>
+      </c>
+      <c r="AE40">
+        <v>115.8188465161579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>81.75761305020265</v>
+      </c>
+      <c r="C41">
+        <v>72.15353638249479</v>
+      </c>
+      <c r="D41">
+        <v>59.62923639736915</v>
+      </c>
+      <c r="E41">
+        <v>54.87483390255804</v>
+      </c>
+      <c r="F41">
+        <v>50.07559389729359</v>
+      </c>
+      <c r="G41">
+        <v>75.6139282528909</v>
+      </c>
+      <c r="H41">
+        <v>53.03671585955023</v>
+      </c>
+      <c r="I41">
+        <v>43.61192497471305</v>
+      </c>
+      <c r="J41">
+        <v>57.47991043979336</v>
+      </c>
+      <c r="K41">
+        <v>45.74336814410004</v>
+      </c>
+      <c r="L41">
+        <v>49.86035185896706</v>
+      </c>
+      <c r="M41">
+        <v>42.59713165226034</v>
+      </c>
+      <c r="N41">
+        <v>54.87011177924341</v>
+      </c>
+      <c r="O41">
+        <v>50.27857292956249</v>
+      </c>
+      <c r="P41">
+        <v>58.8013516709721</v>
+      </c>
+      <c r="Q41">
+        <v>57.73895096322182</v>
+      </c>
+      <c r="R41">
+        <v>59.90895870680222</v>
+      </c>
+      <c r="S41">
+        <v>48.47967250130031</v>
+      </c>
+      <c r="T41">
+        <v>40.5499306411244</v>
+      </c>
+      <c r="U41">
+        <v>54.89350485257796</v>
+      </c>
+      <c r="V41">
+        <v>62.018394448744</v>
+      </c>
+      <c r="W41">
+        <v>56.6063941102652</v>
+      </c>
+      <c r="X41">
+        <v>49.26395741310274</v>
+      </c>
+      <c r="Y41">
+        <v>64.20568348414857</v>
+      </c>
+      <c r="Z41">
+        <v>42.55000122405012</v>
+      </c>
+      <c r="AA41">
+        <v>46.71386192377305</v>
+      </c>
+      <c r="AB41">
+        <v>51.03675146401855</v>
+      </c>
+      <c r="AC41">
+        <v>49.33328934401192</v>
+      </c>
+      <c r="AD41">
+        <v>45.88374121988456</v>
+      </c>
+      <c r="AE41">
+        <v>51.5886171230308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/histogram_via_pil.xlsx
+++ b/histogram_via_pil.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fluky\Desktop\New folder (2)\New folder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>average</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +65,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +151,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +186,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,14 +362,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="T47" sqref="T47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1</v>
       </c>
@@ -437,103 +462,110 @@
       <c r="AE1">
         <v>30</v>
       </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>95.01581556947946</v>
+        <v>95.015815569479457</v>
       </c>
       <c r="C2">
-        <v>84.68338704649612</v>
+        <v>84.683387046496122</v>
       </c>
       <c r="D2">
-        <v>58.60305203940605</v>
+        <v>58.603052039406052</v>
       </c>
       <c r="E2">
-        <v>57.44236241659983</v>
+        <v>57.442362416599828</v>
       </c>
       <c r="F2">
-        <v>59.13471114751471</v>
+        <v>59.134711147514707</v>
       </c>
       <c r="G2">
-        <v>88.88696883776984</v>
+        <v>88.886968837769842</v>
       </c>
       <c r="H2">
-        <v>61.88674131023543</v>
+        <v>61.886741310235429</v>
       </c>
       <c r="I2">
-        <v>60.07690383999495</v>
+        <v>60.076903839994948</v>
       </c>
       <c r="J2">
-        <v>54.13086958165984</v>
+        <v>54.130869581659837</v>
       </c>
       <c r="K2">
-        <v>64.30183949546078</v>
+        <v>64.301839495460783</v>
       </c>
       <c r="L2">
-        <v>51.8216844493371</v>
+        <v>51.821684449337098</v>
       </c>
       <c r="M2">
         <v>61.56737501848415</v>
       </c>
       <c r="N2">
-        <v>66.91515538974211</v>
+        <v>66.915155389742111</v>
       </c>
       <c r="O2">
-        <v>38.30133401723757</v>
+        <v>38.301334017237572</v>
       </c>
       <c r="P2">
-        <v>71.12635470297442</v>
+        <v>71.126354702974425</v>
       </c>
       <c r="Q2">
         <v>49.88345792945794</v>
       </c>
       <c r="R2">
-        <v>47.41607168636671</v>
+        <v>47.416071686366713</v>
       </c>
       <c r="S2">
-        <v>59.76950082748447</v>
+        <v>59.769500827484471</v>
       </c>
       <c r="T2">
-        <v>51.6660198212197</v>
+        <v>51.666019821219699</v>
       </c>
       <c r="U2">
-        <v>69.11693744420876</v>
+        <v>69.116937444208759</v>
       </c>
       <c r="V2">
-        <v>46.51447467366117</v>
+        <v>46.514474673661169</v>
       </c>
       <c r="W2">
-        <v>73.55718084705713</v>
+        <v>73.557180847057126</v>
       </c>
       <c r="X2">
-        <v>44.72287352872875</v>
+        <v>44.722873528728748</v>
       </c>
       <c r="Y2">
-        <v>58.75434381104657</v>
+        <v>58.754343811046567</v>
       </c>
       <c r="Z2">
-        <v>65.37591618223539</v>
+        <v>65.375916182235386</v>
       </c>
       <c r="AA2">
-        <v>42.38541538666337</v>
+        <v>42.385415386663368</v>
       </c>
       <c r="AB2">
-        <v>46.33047615590988</v>
+        <v>46.330476155909878</v>
       </c>
       <c r="AC2">
-        <v>62.58452617593798</v>
+        <v>62.584526175937981</v>
       </c>
       <c r="AD2">
-        <v>51.26701953172884</v>
+        <v>51.267019531728842</v>
       </c>
       <c r="AE2">
-        <v>39.2048904793777</v>
+        <v>39.204890479377703</v>
+      </c>
+      <c r="AF2">
+        <f>AVERAGE(B2:AE2)</f>
+        <v>59.414788644782568</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -541,94 +573,98 @@
         <v>85.40188388339763</v>
       </c>
       <c r="C3">
-        <v>75.13266045247344</v>
+        <v>75.132660452473445</v>
       </c>
       <c r="D3">
-        <v>64.69203889068062</v>
+        <v>64.692038890680621</v>
       </c>
       <c r="E3">
-        <v>59.08422219594669</v>
+        <v>59.084222195946687</v>
       </c>
       <c r="F3">
-        <v>65.00256405199208</v>
+        <v>65.002564051992081</v>
       </c>
       <c r="G3">
-        <v>77.81419844197245</v>
+        <v>77.814198441972451</v>
       </c>
       <c r="H3">
-        <v>63.95762757482488</v>
+        <v>63.957627574824883</v>
       </c>
       <c r="I3">
-        <v>46.46672196314261</v>
+        <v>46.466721963142611</v>
       </c>
       <c r="J3">
-        <v>59.9497402343552</v>
+        <v>59.949740234355197</v>
       </c>
       <c r="K3">
-        <v>34.54133996628774</v>
+        <v>34.541339966287737</v>
       </c>
       <c r="L3">
-        <v>62.12229621882952</v>
+        <v>62.122296218829518</v>
       </c>
       <c r="M3">
-        <v>41.70141259597809</v>
+        <v>41.701412595978091</v>
       </c>
       <c r="N3">
-        <v>71.87992736733484</v>
+        <v>71.879927367334844</v>
       </c>
       <c r="O3">
-        <v>62.62034247484332</v>
+        <v>62.620342474843319</v>
       </c>
       <c r="P3">
-        <v>46.82995057474793</v>
+        <v>46.829950574747933</v>
       </c>
       <c r="Q3">
-        <v>80.25168741735799</v>
+        <v>80.251687417357985</v>
       </c>
       <c r="R3">
-        <v>70.49929816435528</v>
+        <v>70.499298164355281</v>
       </c>
       <c r="S3">
-        <v>58.22945363674069</v>
+        <v>58.229453636740693</v>
       </c>
       <c r="T3">
-        <v>50.98444922228738</v>
+        <v>50.984449222287381</v>
       </c>
       <c r="U3">
-        <v>46.18850077851268</v>
+        <v>46.188500778512683</v>
       </c>
       <c r="V3">
-        <v>72.63792555660346</v>
+        <v>72.637925556603463</v>
       </c>
       <c r="W3">
-        <v>47.92436532356653</v>
+        <v>47.924365323566533</v>
       </c>
       <c r="X3">
         <v>66.14817253081651</v>
       </c>
       <c r="Y3">
-        <v>67.52260423986425</v>
+        <v>67.522604239864251</v>
       </c>
       <c r="Z3">
-        <v>52.56231420894632</v>
+        <v>52.562314208946319</v>
       </c>
       <c r="AA3">
-        <v>63.59177668928586</v>
+        <v>63.591776689285858</v>
       </c>
       <c r="AB3">
-        <v>70.15997345352976</v>
+        <v>70.159973453529759</v>
       </c>
       <c r="AC3">
-        <v>59.61272585055421</v>
+        <v>59.612725850554213</v>
       </c>
       <c r="AD3">
-        <v>49.6617726895312</v>
+        <v>49.661772689531197</v>
       </c>
       <c r="AE3">
-        <v>65.87140249506356</v>
+        <v>65.871402495063563</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF41" si="0">AVERAGE(B3:AE3)</f>
+        <v>61.301444971460768</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -636,94 +672,98 @@
         <v>103.9846868734366</v>
       </c>
       <c r="C4">
-        <v>104.7015475649715</v>
+        <v>104.70154756497151</v>
       </c>
       <c r="D4">
-        <v>75.16649921452154</v>
+        <v>75.166499214521536</v>
       </c>
       <c r="E4">
-        <v>75.89692846222435</v>
+        <v>75.896928462224352</v>
       </c>
       <c r="F4">
-        <v>71.85574017316455</v>
+        <v>71.855740173164548</v>
       </c>
       <c r="G4">
-        <v>103.3398393449174</v>
+        <v>103.33983934491739</v>
       </c>
       <c r="H4">
-        <v>69.98889420829565</v>
+        <v>69.988894208295648</v>
       </c>
       <c r="I4">
         <v>71.13288986701815</v>
       </c>
       <c r="J4">
-        <v>80.81386148633992</v>
+        <v>80.813861486339917</v>
       </c>
       <c r="K4">
-        <v>69.88053421733409</v>
+        <v>69.880534217334088</v>
       </c>
       <c r="L4">
-        <v>36.2503232744206</v>
+        <v>36.250323274420602</v>
       </c>
       <c r="M4">
         <v>58.49964387355989</v>
       </c>
       <c r="N4">
-        <v>60.53436093795545</v>
+        <v>60.534360937955448</v>
       </c>
       <c r="O4">
-        <v>70.67570082779513</v>
+        <v>70.675700827795126</v>
       </c>
       <c r="P4">
-        <v>76.91345582861298</v>
+        <v>76.913455828612982</v>
       </c>
       <c r="Q4">
-        <v>66.70734436077235</v>
+        <v>66.707344360772353</v>
       </c>
       <c r="R4">
-        <v>77.27757059242136</v>
+        <v>77.277570592421355</v>
       </c>
       <c r="S4">
-        <v>53.10141633390457</v>
+        <v>53.101416333904567</v>
       </c>
       <c r="T4">
-        <v>57.53246366183183</v>
+        <v>57.532463661831827</v>
       </c>
       <c r="U4">
-        <v>63.56652519211664</v>
+        <v>63.566525192116643</v>
       </c>
       <c r="V4">
-        <v>76.86536186193796</v>
+        <v>76.865361861937956</v>
       </c>
       <c r="W4">
-        <v>64.79006562866461</v>
+        <v>64.790065628664607</v>
       </c>
       <c r="X4">
-        <v>62.46684537283225</v>
+        <v>62.466845372832253</v>
       </c>
       <c r="Y4">
-        <v>78.31518517609894</v>
+        <v>78.315185176098936</v>
       </c>
       <c r="Z4">
-        <v>41.28527532103102</v>
+        <v>41.285275321031023</v>
       </c>
       <c r="AA4">
-        <v>61.10211739375322</v>
+        <v>61.102117393753218</v>
       </c>
       <c r="AB4">
-        <v>60.91960207245831</v>
+        <v>60.919602072458311</v>
       </c>
       <c r="AC4">
-        <v>53.46004641318599</v>
+        <v>53.460046413185992</v>
       </c>
       <c r="AD4">
-        <v>59.70380449212038</v>
+        <v>59.703804492120383</v>
       </c>
       <c r="AE4">
-        <v>63.09638377778344</v>
+        <v>63.096383777783437</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>68.994163793516023</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -737,188 +777,196 @@
         <v>69.02320714803102</v>
       </c>
       <c r="E5">
-        <v>68.11901732140103</v>
+        <v>68.119017321401031</v>
       </c>
       <c r="F5">
-        <v>73.43362578433216</v>
+        <v>73.433625784332165</v>
       </c>
       <c r="G5">
-        <v>92.93770314929601</v>
+        <v>92.937703149296013</v>
       </c>
       <c r="H5">
-        <v>68.85229132594887</v>
+        <v>68.852291325948869</v>
       </c>
       <c r="I5">
-        <v>65.11084299101034</v>
+        <v>65.110842991010344</v>
       </c>
       <c r="J5">
-        <v>76.70180354246351</v>
+        <v>76.701803542463509</v>
       </c>
       <c r="K5">
-        <v>48.5310521298821</v>
+        <v>48.531052129882099</v>
       </c>
       <c r="L5">
-        <v>69.82216995100244</v>
+        <v>69.822169951002437</v>
       </c>
       <c r="M5">
-        <v>57.67773707564008</v>
+        <v>57.677737075640081</v>
       </c>
       <c r="N5">
-        <v>75.64999586913406</v>
+        <v>75.649995869134059</v>
       </c>
       <c r="O5">
-        <v>73.71678277366695</v>
+        <v>73.716782773666949</v>
       </c>
       <c r="P5">
-        <v>65.18858859749406</v>
+        <v>65.188588597494061</v>
       </c>
       <c r="Q5">
-        <v>81.4685362322985</v>
+        <v>81.468536232298504</v>
       </c>
       <c r="R5">
-        <v>81.00766746117309</v>
+        <v>81.007667461173085</v>
       </c>
       <c r="S5">
         <v>68.49777596754511</v>
       </c>
       <c r="T5">
-        <v>63.45355913316972</v>
+        <v>63.453559133169719</v>
       </c>
       <c r="U5">
-        <v>58.86177310728359</v>
+        <v>58.861773107283589</v>
       </c>
       <c r="V5">
-        <v>81.08608465698661</v>
+        <v>81.086084656986614</v>
       </c>
       <c r="W5">
-        <v>40.33101964782608</v>
+        <v>40.331019647826082</v>
       </c>
       <c r="X5">
-        <v>72.40992968279052</v>
+        <v>72.409929682790519</v>
       </c>
       <c r="Y5">
-        <v>82.6256461144682</v>
+        <v>82.625646114468196</v>
       </c>
       <c r="Z5">
-        <v>65.04057227351761</v>
+        <v>65.040572273517611</v>
       </c>
       <c r="AA5">
-        <v>71.26980718836461</v>
+        <v>71.269807188364609</v>
       </c>
       <c r="AB5">
-        <v>74.76269750015712</v>
+        <v>74.762697500157117</v>
       </c>
       <c r="AC5">
-        <v>71.59570736084672</v>
+        <v>71.595707360846717</v>
       </c>
       <c r="AD5">
-        <v>67.39596535278156</v>
+        <v>67.395965352781559</v>
       </c>
       <c r="AE5">
-        <v>72.12008937644674</v>
+        <v>72.120089376446742</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>71.412952402181375</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>89.77067136598679</v>
+        <v>89.770671365986786</v>
       </c>
       <c r="C6">
-        <v>84.49660989254737</v>
+        <v>84.496609892547369</v>
       </c>
       <c r="D6">
-        <v>69.8110918240552</v>
+        <v>69.811091824055197</v>
       </c>
       <c r="E6">
-        <v>66.43456994166014</v>
+        <v>66.434569941660143</v>
       </c>
       <c r="F6">
-        <v>73.63591104775803</v>
+        <v>73.635911047758029</v>
       </c>
       <c r="G6">
-        <v>88.76804394037305</v>
+        <v>88.768043940373047</v>
       </c>
       <c r="H6">
-        <v>69.24887183196562</v>
+        <v>69.248871831965616</v>
       </c>
       <c r="I6">
-        <v>58.221716130381</v>
+        <v>58.221716130380997</v>
       </c>
       <c r="J6">
-        <v>67.45729744932468</v>
+        <v>67.457297449324685</v>
       </c>
       <c r="K6">
-        <v>47.20991465430399</v>
+        <v>47.209914654303986</v>
       </c>
       <c r="L6">
-        <v>65.11650216470989</v>
+        <v>65.116502164709885</v>
       </c>
       <c r="M6">
-        <v>33.47709882641166</v>
+        <v>33.477098826411662</v>
       </c>
       <c r="N6">
-        <v>66.15852568515514</v>
+        <v>66.158525685155141</v>
       </c>
       <c r="O6">
-        <v>67.51550747791207</v>
+        <v>67.515507477912067</v>
       </c>
       <c r="P6">
-        <v>34.92201132523727</v>
+        <v>34.922011325237271</v>
       </c>
       <c r="Q6">
-        <v>82.19338540397681</v>
+        <v>82.193385403976805</v>
       </c>
       <c r="R6">
-        <v>69.38280736849246</v>
+        <v>69.382807368492465</v>
       </c>
       <c r="S6">
-        <v>60.0136269247799</v>
+        <v>60.013626924779899</v>
       </c>
       <c r="T6">
-        <v>48.09138436352191</v>
+        <v>48.091384363521911</v>
       </c>
       <c r="U6">
-        <v>29.16440467419145</v>
+        <v>29.164404674191449</v>
       </c>
       <c r="V6">
-        <v>73.60131551700236</v>
+        <v>73.601315517002362</v>
       </c>
       <c r="W6">
-        <v>45.2092645833425</v>
+        <v>45.209264583342502</v>
       </c>
       <c r="X6">
         <v>68.6905614270743</v>
       </c>
       <c r="Y6">
-        <v>68.84610706738133</v>
+        <v>68.846107067381325</v>
       </c>
       <c r="Z6">
-        <v>55.53646981188727</v>
+        <v>55.536469811887272</v>
       </c>
       <c r="AA6">
-        <v>65.64063305859666</v>
+        <v>65.640633058596663</v>
       </c>
       <c r="AB6">
-        <v>74.41443282388168</v>
+        <v>74.414432823881683</v>
       </c>
       <c r="AC6">
-        <v>66.65811794147807</v>
+        <v>66.658117941478068</v>
       </c>
       <c r="AD6">
-        <v>51.3584979579816</v>
+        <v>51.358497957981598</v>
       </c>
       <c r="AE6">
-        <v>65.7871013826672</v>
+        <v>65.787101382667203</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>63.561081795467913</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>97.60828655481392</v>
+        <v>97.608286554813915</v>
       </c>
       <c r="C7">
         <v>100.4914875126247</v>
@@ -927,183 +975,191 @@
         <v>70.91366155990913</v>
       </c>
       <c r="E7">
-        <v>72.22654968338628</v>
+        <v>72.226549683386281</v>
       </c>
       <c r="F7">
-        <v>67.06303393698597</v>
+        <v>67.063033936985974</v>
       </c>
       <c r="G7">
-        <v>95.25228289040287</v>
+        <v>95.252282890402867</v>
       </c>
       <c r="H7">
-        <v>65.95837939564616</v>
+        <v>65.958379395646162</v>
       </c>
       <c r="I7">
-        <v>64.87614401688806</v>
+        <v>64.876144016888063</v>
       </c>
       <c r="J7">
-        <v>79.61170414895037</v>
+        <v>79.611704148950366</v>
       </c>
       <c r="K7">
-        <v>54.97324159685935</v>
+        <v>54.973241596859353</v>
       </c>
       <c r="L7">
-        <v>53.17718025619636</v>
+        <v>53.177180256196358</v>
       </c>
       <c r="M7">
-        <v>55.03999492793097</v>
+        <v>55.039994927930969</v>
       </c>
       <c r="N7">
-        <v>75.17280439649257</v>
+        <v>75.172804396492566</v>
       </c>
       <c r="O7">
-        <v>74.30917955856239</v>
+        <v>74.309179558562391</v>
       </c>
       <c r="P7">
-        <v>69.42055561335322</v>
+        <v>69.420555613353216</v>
       </c>
       <c r="Q7">
-        <v>69.09374293306161</v>
+        <v>69.093742933061606</v>
       </c>
       <c r="R7">
-        <v>82.38244465600665</v>
+        <v>82.382444656006655</v>
       </c>
       <c r="S7">
-        <v>58.61302738441913</v>
+        <v>58.613027384419127</v>
       </c>
       <c r="T7">
-        <v>63.48564470282501</v>
+        <v>63.485644702825013</v>
       </c>
       <c r="U7">
-        <v>56.36622252436885</v>
+        <v>56.366222524368851</v>
       </c>
       <c r="V7">
-        <v>79.36683028822557</v>
+        <v>79.366830288225572</v>
       </c>
       <c r="W7">
-        <v>51.49620738462202</v>
+        <v>51.496207384622018</v>
       </c>
       <c r="X7">
-        <v>63.04190074862908</v>
+        <v>63.041900748629082</v>
       </c>
       <c r="Y7">
-        <v>82.19034374040947</v>
+        <v>82.190343740409475</v>
       </c>
       <c r="Z7">
-        <v>45.84052973806767</v>
+        <v>45.840529738067673</v>
       </c>
       <c r="AA7">
-        <v>64.24256198839934</v>
+        <v>64.242561988399345</v>
       </c>
       <c r="AB7">
-        <v>64.10306642431389</v>
+        <v>64.103066424313894</v>
       </c>
       <c r="AC7">
-        <v>61.17118653827144</v>
+        <v>61.171186538271442</v>
       </c>
       <c r="AD7">
-        <v>64.14909797365301</v>
+        <v>64.149097973653014</v>
       </c>
       <c r="AE7">
-        <v>68.44677448572723</v>
+        <v>68.446774485727232</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>69.002802252000066</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>101.5965391675983</v>
+        <v>101.59653916759829</v>
       </c>
       <c r="C8">
         <v>105.526260554739</v>
       </c>
       <c r="D8">
-        <v>70.31162036486809</v>
+        <v>70.311620364868091</v>
       </c>
       <c r="E8">
-        <v>72.24527810406251</v>
+        <v>72.245278104062507</v>
       </c>
       <c r="F8">
-        <v>64.42809299262758</v>
+        <v>64.428092992627583</v>
       </c>
       <c r="G8">
-        <v>99.2393990980061</v>
+        <v>99.239399098006103</v>
       </c>
       <c r="H8">
-        <v>63.4748555860245</v>
+        <v>63.474855586024503</v>
       </c>
       <c r="I8">
-        <v>69.4419721782151</v>
+        <v>69.441972178215096</v>
       </c>
       <c r="J8">
-        <v>83.55178658572578</v>
+        <v>83.551786585725779</v>
       </c>
       <c r="K8">
-        <v>69.02296191002914</v>
+        <v>69.022961910029139</v>
       </c>
       <c r="L8">
-        <v>43.5571045200053</v>
+        <v>43.557104520005304</v>
       </c>
       <c r="M8">
-        <v>56.50903320119124</v>
+        <v>56.509033201191237</v>
       </c>
       <c r="N8">
-        <v>64.13230952491887</v>
+        <v>64.132309524918867</v>
       </c>
       <c r="O8">
         <v>72.48672651481327</v>
       </c>
       <c r="P8">
-        <v>71.00616170446055</v>
+        <v>71.006161704460553</v>
       </c>
       <c r="Q8">
-        <v>68.20679340554479</v>
+        <v>68.206793405544786</v>
       </c>
       <c r="R8">
-        <v>83.8580615037497</v>
+        <v>83.858061503749695</v>
       </c>
       <c r="S8">
         <v>59.95325870348222</v>
       </c>
       <c r="T8">
-        <v>58.02659681128991</v>
+        <v>58.026596811289913</v>
       </c>
       <c r="U8">
-        <v>57.42368123576428</v>
+        <v>57.423681235764278</v>
       </c>
       <c r="V8">
-        <v>85.93914392367039</v>
+        <v>85.939143923670386</v>
       </c>
       <c r="W8">
-        <v>61.98260844785415</v>
+        <v>61.982608447854147</v>
       </c>
       <c r="X8">
-        <v>61.51740099354003</v>
+        <v>61.517400993540029</v>
       </c>
       <c r="Y8">
-        <v>86.36851760527868</v>
+        <v>86.368517605278683</v>
       </c>
       <c r="Z8">
-        <v>42.2597683480794</v>
+        <v>42.259768348079398</v>
       </c>
       <c r="AA8">
-        <v>59.97358359450156</v>
+        <v>59.973583594501562</v>
       </c>
       <c r="AB8">
         <v>51.14621096262492</v>
       </c>
       <c r="AC8">
-        <v>65.40363458300057</v>
+        <v>65.403634583000567</v>
       </c>
       <c r="AD8">
-        <v>67.72097317916609</v>
+        <v>67.720973179166094</v>
       </c>
       <c r="AE8">
         <v>69.06833497220947</v>
       </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>69.512622342568037</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1117,289 +1173,301 @@
         <v>76.63847420954221</v>
       </c>
       <c r="E9">
-        <v>78.77357451370774</v>
+        <v>78.773574513707743</v>
       </c>
       <c r="F9">
         <v>69.29764831868394</v>
       </c>
       <c r="G9">
-        <v>99.91912093872057</v>
+        <v>99.919120938720567</v>
       </c>
       <c r="H9">
-        <v>71.71572932999659</v>
+        <v>71.715729329996591</v>
       </c>
       <c r="I9">
-        <v>71.38421204416748</v>
+        <v>71.384212044167484</v>
       </c>
       <c r="J9">
-        <v>84.19488491490046</v>
+        <v>84.194884914900456</v>
       </c>
       <c r="K9">
-        <v>71.68354936803841</v>
+        <v>71.683549368038413</v>
       </c>
       <c r="L9">
-        <v>50.60102312865489</v>
+        <v>50.601023128654887</v>
       </c>
       <c r="M9">
         <v>58.73517100085774</v>
       </c>
       <c r="N9">
-        <v>73.63462019774848</v>
+        <v>73.634620197748475</v>
       </c>
       <c r="O9">
-        <v>78.12936654463971</v>
+        <v>78.129366544639709</v>
       </c>
       <c r="P9">
-        <v>76.09259709941128</v>
+        <v>76.092597099411279</v>
       </c>
       <c r="Q9">
-        <v>70.43621523525144</v>
+        <v>70.436215235251439</v>
       </c>
       <c r="R9">
-        <v>87.86708712595404</v>
+        <v>87.867087125954043</v>
       </c>
       <c r="S9">
-        <v>58.23593803800765</v>
+        <v>58.235938038007653</v>
       </c>
       <c r="T9">
-        <v>64.84506775769457</v>
+        <v>64.845067757694565</v>
       </c>
       <c r="U9">
-        <v>62.41133293855104</v>
+        <v>62.411332938551041</v>
       </c>
       <c r="V9">
-        <v>86.06389946816648</v>
+        <v>86.063899468166483</v>
       </c>
       <c r="W9">
-        <v>62.82505057034707</v>
+        <v>62.825050570347067</v>
       </c>
       <c r="X9">
-        <v>66.20186930895532</v>
+        <v>66.201869308955324</v>
       </c>
       <c r="Y9">
-        <v>86.84149533777041</v>
+        <v>86.841495337770411</v>
       </c>
       <c r="Z9">
         <v>40.98926434649281</v>
       </c>
       <c r="AA9">
-        <v>65.26901463047633</v>
+        <v>65.269014630476335</v>
       </c>
       <c r="AB9">
         <v>60.8685614322643</v>
       </c>
       <c r="AC9">
-        <v>60.23214638657113</v>
+        <v>60.232146386571131</v>
       </c>
       <c r="AD9">
-        <v>68.74028340427468</v>
+        <v>68.740283404274678</v>
       </c>
       <c r="AE9">
-        <v>73.85467501000416</v>
+        <v>73.854675010004158</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>72.937878066104361</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>93.21888444229884</v>
+        <v>93.218884442298844</v>
       </c>
       <c r="C10">
-        <v>87.0038762306983</v>
+        <v>87.003876230698296</v>
       </c>
       <c r="D10">
         <v>70.83094971479629</v>
       </c>
       <c r="E10">
-        <v>67.83460661171897</v>
+        <v>67.834606611718968</v>
       </c>
       <c r="F10">
-        <v>67.15866629358666</v>
+        <v>67.158666293586663</v>
       </c>
       <c r="G10">
-        <v>89.18797447899951</v>
+        <v>89.187974478999507</v>
       </c>
       <c r="H10">
-        <v>65.0034053595143</v>
+        <v>65.003405359514304</v>
       </c>
       <c r="I10">
-        <v>61.67837022949509</v>
+        <v>61.678370229495087</v>
       </c>
       <c r="J10">
-        <v>70.75691956739402</v>
+        <v>70.756919567394021</v>
       </c>
       <c r="K10">
-        <v>52.95831694203785</v>
+        <v>52.958316942037847</v>
       </c>
       <c r="L10">
-        <v>58.09049154838797</v>
+        <v>58.090491548387973</v>
       </c>
       <c r="M10">
-        <v>29.14055378677626</v>
+        <v>29.140553786776259</v>
       </c>
       <c r="N10">
-        <v>59.84724478481306</v>
+        <v>59.847244784813057</v>
       </c>
       <c r="O10">
-        <v>63.75224669243691</v>
+        <v>63.752246692436913</v>
       </c>
       <c r="P10">
-        <v>57.12333604432897</v>
+        <v>57.123336044328973</v>
       </c>
       <c r="Q10">
-        <v>75.08718890396683</v>
+        <v>75.087188903966833</v>
       </c>
       <c r="R10">
         <v>74.1513970704531</v>
       </c>
       <c r="S10">
-        <v>56.88264600620005</v>
+        <v>56.882646006200048</v>
       </c>
       <c r="T10">
-        <v>46.55675300104164</v>
+        <v>46.556753001041642</v>
       </c>
       <c r="U10">
-        <v>40.56229134512333</v>
+        <v>40.562291345123327</v>
       </c>
       <c r="V10">
-        <v>74.39836817766906</v>
+        <v>74.398368177669056</v>
       </c>
       <c r="W10">
-        <v>54.30620648231655</v>
+        <v>54.306206482316547</v>
       </c>
       <c r="X10">
-        <v>62.57607869625581</v>
+        <v>62.576078696255813</v>
       </c>
       <c r="Y10">
-        <v>76.04045661137673</v>
+        <v>76.040456611376726</v>
       </c>
       <c r="Z10">
-        <v>46.78964450958495</v>
+        <v>46.789644509584953</v>
       </c>
       <c r="AA10">
-        <v>60.04828786068759</v>
+        <v>60.048287860687587</v>
       </c>
       <c r="AB10">
-        <v>66.35379055361746</v>
+        <v>66.353790553617458</v>
       </c>
       <c r="AC10">
-        <v>60.32088672259385</v>
+        <v>60.320886722593848</v>
       </c>
       <c r="AD10">
         <v>54.35557603257768</v>
       </c>
       <c r="AE10">
-        <v>62.88187503830761</v>
+        <v>62.881875038307612</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>63.496576324635178</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>97.40732775310079</v>
+        <v>97.407327753100788</v>
       </c>
       <c r="C11">
-        <v>92.72016310292672</v>
+        <v>92.720163102926719</v>
       </c>
       <c r="D11">
-        <v>76.56551864797451</v>
+        <v>76.565518647974514</v>
       </c>
       <c r="E11">
-        <v>71.66687257722357</v>
+        <v>71.666872577223572</v>
       </c>
       <c r="F11">
-        <v>68.6714892622841</v>
+        <v>68.671489262284098</v>
       </c>
       <c r="G11">
-        <v>95.02480487570951</v>
+        <v>95.024804875709506</v>
       </c>
       <c r="H11">
         <v>69.65099006235782</v>
       </c>
       <c r="I11">
-        <v>67.6767939363265</v>
+        <v>67.676793936326504</v>
       </c>
       <c r="J11">
-        <v>75.50541509278214</v>
+        <v>75.505415092782144</v>
       </c>
       <c r="K11">
-        <v>65.44875142048166</v>
+        <v>65.448751420481656</v>
       </c>
       <c r="L11">
-        <v>48.8750532821534</v>
+        <v>48.875053282153402</v>
       </c>
       <c r="M11">
         <v>55.93173853010471</v>
       </c>
       <c r="N11">
-        <v>50.32741756074251</v>
+        <v>50.327417560742511</v>
       </c>
       <c r="O11">
-        <v>66.23490394044518</v>
+        <v>66.234903940445179</v>
       </c>
       <c r="P11">
         <v>73.95048667295346</v>
       </c>
       <c r="Q11">
-        <v>73.66428634917555</v>
+        <v>73.664286349175555</v>
       </c>
       <c r="R11">
-        <v>77.20714156302726</v>
+        <v>77.207141563027264</v>
       </c>
       <c r="S11">
-        <v>46.73927573073136</v>
+        <v>46.739275730731357</v>
       </c>
       <c r="T11">
-        <v>48.06105058499381</v>
+        <v>48.061050584993808</v>
       </c>
       <c r="U11">
-        <v>65.38798468883</v>
+        <v>65.387984688830002</v>
       </c>
       <c r="V11">
-        <v>76.82727176920966</v>
+        <v>76.827271769209659</v>
       </c>
       <c r="W11">
-        <v>62.07006289938277</v>
+        <v>62.070062899382769</v>
       </c>
       <c r="X11">
-        <v>57.23626108799677</v>
+        <v>57.236261087996773</v>
       </c>
       <c r="Y11">
         <v>79.6131270582936</v>
       </c>
       <c r="Z11">
-        <v>45.92024902843335</v>
+        <v>45.920249028433354</v>
       </c>
       <c r="AA11">
         <v>58.28050435179847</v>
       </c>
       <c r="AB11">
-        <v>67.39861212715486</v>
+        <v>67.398612127154863</v>
       </c>
       <c r="AC11">
-        <v>58.83418171012494</v>
+        <v>58.834181710124938</v>
       </c>
       <c r="AD11">
-        <v>55.20954401188258</v>
+        <v>55.209544011882578</v>
       </c>
       <c r="AE11">
-        <v>60.8636839242691</v>
+        <v>60.863683924269097</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="0"/>
+        <v>66.965698786762374</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>116.8035097753203</v>
+        <v>116.80350977532029</v>
       </c>
       <c r="C12">
         <v>102.4795584291489</v>
       </c>
       <c r="D12">
-        <v>115.1321138772034</v>
+        <v>115.13211387720339</v>
       </c>
       <c r="E12">
         <v>108.7906054461199</v>
@@ -1408,7 +1476,7 @@
         <v>114.7534721696908</v>
       </c>
       <c r="G12">
-        <v>95.45982466462004</v>
+        <v>95.459824664620044</v>
       </c>
       <c r="H12">
         <v>113.5000573604848</v>
@@ -1429,10 +1497,10 @@
         <v>116.1431408507049</v>
       </c>
       <c r="N12">
-        <v>124.6678085954831</v>
+        <v>124.66780859548309</v>
       </c>
       <c r="O12">
-        <v>115.8537939063715</v>
+        <v>115.85379390637149</v>
       </c>
       <c r="P12">
         <v>114.8907542697264</v>
@@ -1447,7 +1515,7 @@
         <v>115.9641085817792</v>
       </c>
       <c r="T12">
-        <v>113.5507985624349</v>
+        <v>113.55079856243491</v>
       </c>
       <c r="U12">
         <v>118.0377433457903</v>
@@ -1471,7 +1539,7 @@
         <v>116.4669123256329</v>
       </c>
       <c r="AB12">
-        <v>117.6659621378814</v>
+        <v>117.66596213788139</v>
       </c>
       <c r="AC12">
         <v>114.8749886652153</v>
@@ -1482,114 +1550,122 @@
       <c r="AE12">
         <v>117.109268331617</v>
       </c>
+      <c r="AF12">
+        <f t="shared" si="0"/>
+        <v>113.89053512707123</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>98.92193628900854</v>
+        <v>98.921936289008542</v>
       </c>
       <c r="C13">
-        <v>74.31194806355167</v>
+        <v>74.311948063551668</v>
       </c>
       <c r="D13">
-        <v>89.7930636008892</v>
+        <v>89.793063600889198</v>
       </c>
       <c r="E13">
-        <v>86.30274655247074</v>
+        <v>86.302746552470737</v>
       </c>
       <c r="F13">
-        <v>88.85710966208613</v>
+        <v>88.857109662086131</v>
       </c>
       <c r="G13">
-        <v>74.96594713045829</v>
+        <v>74.965947130458289</v>
       </c>
       <c r="H13">
-        <v>87.92934841393971</v>
+        <v>87.929348413939707</v>
       </c>
       <c r="I13">
-        <v>63.20273678805373</v>
+        <v>63.202736788053727</v>
       </c>
       <c r="J13">
-        <v>81.73384779269847</v>
+        <v>81.733847792698469</v>
       </c>
       <c r="K13">
-        <v>75.80240898766564</v>
+        <v>75.802408987665643</v>
       </c>
       <c r="L13">
-        <v>94.36209900784671</v>
+        <v>94.362099007846709</v>
       </c>
       <c r="M13">
-        <v>89.25513523975339</v>
+        <v>89.255135239753386</v>
       </c>
       <c r="N13">
-        <v>99.3256822067351</v>
+        <v>99.325682206735095</v>
       </c>
       <c r="O13">
         <v>88.30941106888514</v>
       </c>
       <c r="P13">
-        <v>87.46954827252739</v>
+        <v>87.469548272527391</v>
       </c>
       <c r="Q13">
-        <v>97.25309281714387</v>
+        <v>97.253092817143866</v>
       </c>
       <c r="R13">
         <v>89.71201029776708</v>
       </c>
       <c r="S13">
-        <v>89.97887483552273</v>
+        <v>89.978874835522731</v>
       </c>
       <c r="T13">
-        <v>86.59291733931438</v>
+        <v>86.592917339314383</v>
       </c>
       <c r="U13">
-        <v>92.28289555762758</v>
+        <v>92.282895557627583</v>
       </c>
       <c r="V13">
         <v>93.92144046577792</v>
       </c>
       <c r="W13">
-        <v>91.53165720576315</v>
+        <v>91.531657205763153</v>
       </c>
       <c r="X13">
-        <v>93.77980081908186</v>
+        <v>93.779800819081856</v>
       </c>
       <c r="Y13">
-        <v>81.49528680134412</v>
+        <v>81.495286801344122</v>
       </c>
       <c r="Z13">
-        <v>86.51651155030081</v>
+        <v>86.516511550300805</v>
       </c>
       <c r="AA13">
-        <v>89.66337509447953</v>
+        <v>89.663375094479534</v>
       </c>
       <c r="AB13">
         <v>93.05279639358865</v>
       </c>
       <c r="AC13">
-        <v>87.76265637597045</v>
+        <v>87.762656375970451</v>
       </c>
       <c r="AD13">
-        <v>81.8142427239903</v>
+        <v>81.814242723990304</v>
       </c>
       <c r="AE13">
-        <v>92.92898834594079</v>
+        <v>92.928988345940795</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="0"/>
+        <v>87.627650523339454</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>119.8494824248315</v>
+        <v>119.84948242483151</v>
       </c>
       <c r="C14">
         <v>112.8197885457157</v>
       </c>
       <c r="D14">
-        <v>116.8852268252922</v>
+        <v>116.88522682529219</v>
       </c>
       <c r="E14">
         <v>113.1593755321818</v>
@@ -1598,7 +1674,7 @@
         <v>114.1253879146383</v>
       </c>
       <c r="G14">
-        <v>89.586928222444</v>
+        <v>89.586928222444001</v>
       </c>
       <c r="H14">
         <v>114.3961956680961</v>
@@ -1619,7 +1695,7 @@
         <v>118.9057312187544</v>
       </c>
       <c r="N14">
-        <v>128.7522754653291</v>
+        <v>128.75227546532909</v>
       </c>
       <c r="O14">
         <v>118.7157297040568</v>
@@ -1634,7 +1710,7 @@
         <v>122.7715633639701</v>
       </c>
       <c r="S14">
-        <v>118.0708319364553</v>
+        <v>118.07083193645531</v>
       </c>
       <c r="T14">
         <v>118.5421096945441</v>
@@ -1643,13 +1719,13 @@
         <v>120.1801165612127</v>
       </c>
       <c r="V14">
-        <v>120.9019704485139</v>
+        <v>120.90197044851389</v>
       </c>
       <c r="W14">
-        <v>119.6534927753191</v>
+        <v>119.65349277531909</v>
       </c>
       <c r="X14">
-        <v>119.1085704829841</v>
+        <v>119.10857048298411</v>
       </c>
       <c r="Y14">
         <v>115.8157098403897</v>
@@ -1672,8 +1748,12 @@
       <c r="AE14">
         <v>120.9338554575737</v>
       </c>
+      <c r="AF14">
+        <f t="shared" si="0"/>
+        <v>115.99081891063771</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1693,22 +1773,22 @@
         <v>110.1196555646024</v>
       </c>
       <c r="G15">
-        <v>86.39816681600755</v>
+        <v>86.398166816007546</v>
       </c>
       <c r="H15">
         <v>109.6170417103715</v>
       </c>
       <c r="I15">
-        <v>92.72899582475088</v>
+        <v>92.728995824750882</v>
       </c>
       <c r="J15">
         <v>108.3210650104586</v>
       </c>
       <c r="K15">
-        <v>105.4167819498711</v>
+        <v>105.41678194987109</v>
       </c>
       <c r="L15">
-        <v>119.0672735263557</v>
+        <v>119.06727352635571</v>
       </c>
       <c r="M15">
         <v>114.9142796464681</v>
@@ -1741,13 +1821,13 @@
         <v>117.5055960546844</v>
       </c>
       <c r="W15">
-        <v>116.2253446076486</v>
+        <v>116.22534460764859</v>
       </c>
       <c r="X15">
         <v>116.1092113414493</v>
       </c>
       <c r="Y15">
-        <v>111.5723560072118</v>
+        <v>111.57235600721179</v>
       </c>
       <c r="Z15">
         <v>111.0412132573607</v>
@@ -1756,7 +1836,7 @@
         <v>113.811659112764</v>
       </c>
       <c r="AB15">
-        <v>114.5298246273287</v>
+        <v>114.52982462732869</v>
       </c>
       <c r="AC15">
         <v>115.3037880629542</v>
@@ -1765,75 +1845,79 @@
         <v>110.8094624983204</v>
       </c>
       <c r="AE15">
-        <v>116.7264653295615</v>
+        <v>116.72646532956151</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>112.0221295548575</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>106.8966108754935</v>
+        <v>106.89661087549349</v>
       </c>
       <c r="C16">
-        <v>93.23329832558036</v>
+        <v>93.233298325580364</v>
       </c>
       <c r="D16">
         <v>101.0513998748492</v>
       </c>
       <c r="E16">
-        <v>98.15444091243826</v>
+        <v>98.154440912438261</v>
       </c>
       <c r="F16">
-        <v>100.3992420912628</v>
+        <v>100.39924209126281</v>
       </c>
       <c r="G16">
         <v>79.05144026729262</v>
       </c>
       <c r="H16">
-        <v>99.38859969835575</v>
+        <v>99.388599698355748</v>
       </c>
       <c r="I16">
         <v>78.52524143017115</v>
       </c>
       <c r="J16">
-        <v>96.53035468183052</v>
+        <v>96.530354681830516</v>
       </c>
       <c r="K16">
-        <v>92.13787506141725</v>
+        <v>92.137875061417247</v>
       </c>
       <c r="L16">
-        <v>107.8865385872275</v>
+        <v>107.88653858722751</v>
       </c>
       <c r="M16">
-        <v>103.0308914031774</v>
+        <v>103.03089140317741</v>
       </c>
       <c r="N16">
-        <v>112.1202038178966</v>
+        <v>112.12020381789659</v>
       </c>
       <c r="O16">
         <v>102.5473975779005</v>
       </c>
       <c r="P16">
-        <v>98.43536373343339</v>
+        <v>98.435363733433391</v>
       </c>
       <c r="Q16">
-        <v>105.7599483106278</v>
+        <v>105.75994831062781</v>
       </c>
       <c r="R16">
-        <v>102.0627232596048</v>
+        <v>102.06272325960479</v>
       </c>
       <c r="S16">
         <v>102.378421290003</v>
       </c>
       <c r="T16">
-        <v>99.48894149183951</v>
+        <v>99.488941491839512</v>
       </c>
       <c r="U16">
         <v>104.2124982507696</v>
       </c>
       <c r="V16">
-        <v>105.4772265112237</v>
+        <v>105.47722651122371</v>
       </c>
       <c r="W16">
         <v>104.487775899863</v>
@@ -1842,218 +1926,230 @@
         <v>105.3278364203879</v>
       </c>
       <c r="Y16">
-        <v>96.08229437137035</v>
+        <v>96.082294371370352</v>
       </c>
       <c r="Z16">
-        <v>98.63278908828106</v>
+        <v>98.632789088281058</v>
       </c>
       <c r="AA16">
         <v>102.298480764216</v>
       </c>
       <c r="AB16">
-        <v>103.6535445205163</v>
+        <v>103.65354452051631</v>
       </c>
       <c r="AC16">
         <v>102.9106863984494</v>
       </c>
       <c r="AD16">
-        <v>96.46317032508659</v>
+        <v>96.463170325086594</v>
       </c>
       <c r="AE16">
         <v>104.9623692488567</v>
       </c>
+      <c r="AF16">
+        <f t="shared" si="0"/>
+        <v>100.1195868163141</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>96.65031740334155</v>
+        <v>96.650317403341546</v>
       </c>
       <c r="C17">
-        <v>86.02932215723504</v>
+        <v>86.029322157235043</v>
       </c>
       <c r="D17">
-        <v>59.87847937002631</v>
+        <v>59.878479370026312</v>
       </c>
       <c r="E17">
-        <v>59.06764748292137</v>
+        <v>59.067647482921373</v>
       </c>
       <c r="F17">
-        <v>57.60404987932706</v>
+        <v>57.604049879327057</v>
       </c>
       <c r="G17">
-        <v>88.51652093912564</v>
+        <v>88.516520939125641</v>
       </c>
       <c r="H17">
-        <v>63.00206676504087</v>
+        <v>63.002066765040873</v>
       </c>
       <c r="I17">
-        <v>61.3144006671081</v>
+        <v>61.314400667108103</v>
       </c>
       <c r="J17">
-        <v>54.372844784874</v>
+        <v>54.372844784873998</v>
       </c>
       <c r="K17">
-        <v>65.12368040889581</v>
+        <v>65.123680408895808</v>
       </c>
       <c r="L17">
-        <v>53.70162551853839</v>
+        <v>53.701625518538393</v>
       </c>
       <c r="M17">
-        <v>64.33360319459808</v>
+        <v>64.333603194598084</v>
       </c>
       <c r="N17">
-        <v>74.09992900918778</v>
+        <v>74.099929009187775</v>
       </c>
       <c r="O17">
         <v>41.73689914212602</v>
       </c>
       <c r="P17">
-        <v>75.47925004595633</v>
+        <v>75.479250045956334</v>
       </c>
       <c r="Q17">
-        <v>51.13434613023487</v>
+        <v>51.134346130234867</v>
       </c>
       <c r="R17">
-        <v>52.1864146593728</v>
+        <v>52.186414659372801</v>
       </c>
       <c r="S17">
-        <v>62.19961146716808</v>
+        <v>62.199611467168083</v>
       </c>
       <c r="T17">
-        <v>57.12593452919027</v>
+        <v>57.125934529190268</v>
       </c>
       <c r="U17">
-        <v>71.63937828340872</v>
+        <v>71.639378283408718</v>
       </c>
       <c r="V17">
-        <v>44.1629911992685</v>
+        <v>44.162991199268497</v>
       </c>
       <c r="W17">
         <v>75.79096801950304</v>
       </c>
       <c r="X17">
-        <v>44.24770474273214</v>
+        <v>44.247704742732139</v>
       </c>
       <c r="Y17">
-        <v>61.57291578554108</v>
+        <v>61.572915785541078</v>
       </c>
       <c r="Z17">
-        <v>67.50189040562741</v>
+        <v>67.501890405627407</v>
       </c>
       <c r="AA17">
-        <v>44.47310165519528</v>
+        <v>44.473101655195279</v>
       </c>
       <c r="AB17">
-        <v>49.22543274737833</v>
+        <v>49.225432747378328</v>
       </c>
       <c r="AC17">
-        <v>62.85747767767968</v>
+        <v>62.857477677679682</v>
       </c>
       <c r="AD17">
-        <v>54.89654095053106</v>
+        <v>54.896540950531062</v>
       </c>
       <c r="AE17">
-        <v>41.28082812678706</v>
+        <v>41.280828126787057</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="0"/>
+        <v>61.373539104930693</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>79.40993325774805</v>
+        <v>79.409933257748051</v>
       </c>
       <c r="C18">
-        <v>64.51770186674868</v>
+        <v>64.517701866748681</v>
       </c>
       <c r="D18">
-        <v>57.65323783911302</v>
+        <v>57.653237839113018</v>
       </c>
       <c r="E18">
-        <v>49.74319467692708</v>
+        <v>49.743194676927082</v>
       </c>
       <c r="F18">
-        <v>54.70053416101162</v>
+        <v>54.700534161011618</v>
       </c>
       <c r="G18">
-        <v>66.9468072427655</v>
+        <v>66.946807242765502</v>
       </c>
       <c r="H18">
-        <v>56.58237450095804</v>
+        <v>56.582374500958039</v>
       </c>
       <c r="I18">
-        <v>34.29524839536813</v>
+        <v>34.295248395368127</v>
       </c>
       <c r="J18">
-        <v>47.6704452902075</v>
+        <v>47.670445290207503</v>
       </c>
       <c r="K18">
-        <v>32.8736929397961</v>
+        <v>32.873692939796101</v>
       </c>
       <c r="L18">
-        <v>58.8141715136185</v>
+        <v>58.814171513618497</v>
       </c>
       <c r="M18">
-        <v>51.24080202013496</v>
+        <v>51.240802020134957</v>
       </c>
       <c r="N18">
-        <v>67.26713304058677</v>
+        <v>67.267133040586771</v>
       </c>
       <c r="O18">
-        <v>50.099614311556</v>
+        <v>50.099614311556003</v>
       </c>
       <c r="P18">
-        <v>55.19128667643109</v>
+        <v>55.191286676431091</v>
       </c>
       <c r="Q18">
-        <v>71.61469166658473</v>
+        <v>71.614691666584733</v>
       </c>
       <c r="R18">
-        <v>61.02524665387815</v>
+        <v>61.025246653878149</v>
       </c>
       <c r="S18">
-        <v>55.13182591903398</v>
+        <v>55.131825919033979</v>
       </c>
       <c r="T18">
         <v>48.87452045800552</v>
       </c>
       <c r="U18">
-        <v>57.78083592334053</v>
+        <v>57.780835923340533</v>
       </c>
       <c r="V18">
-        <v>62.21505880144024</v>
+        <v>62.215058801440243</v>
       </c>
       <c r="W18">
-        <v>55.94477373565232</v>
+        <v>55.944773735652319</v>
       </c>
       <c r="X18">
-        <v>57.71513197016302</v>
+        <v>57.715131970163021</v>
       </c>
       <c r="Y18">
-        <v>57.47728265004648</v>
+        <v>57.477282650046483</v>
       </c>
       <c r="Z18">
-        <v>53.66407861254429</v>
+        <v>53.664078612544287</v>
       </c>
       <c r="AA18">
-        <v>53.25955997909358</v>
+        <v>53.259559979093581</v>
       </c>
       <c r="AB18">
-        <v>61.18129650200841</v>
+        <v>61.181296502008408</v>
       </c>
       <c r="AC18">
-        <v>56.04197645515369</v>
+        <v>56.041976455153687</v>
       </c>
       <c r="AD18">
-        <v>45.44588127652494</v>
+        <v>45.445881276524943</v>
       </c>
       <c r="AE18">
-        <v>56.84103839510089</v>
+        <v>56.841038395100888</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="0"/>
+        <v>56.040645891051369</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2061,76 +2157,76 @@
         <v>97.47370104717136</v>
       </c>
       <c r="C19">
-        <v>97.46823734769531</v>
+        <v>97.468237347695307</v>
       </c>
       <c r="D19">
-        <v>65.76457379673852</v>
+        <v>65.764573796738517</v>
       </c>
       <c r="E19">
-        <v>68.4930615403244</v>
+        <v>68.493061540324405</v>
       </c>
       <c r="F19">
-        <v>63.38342317462298</v>
+        <v>63.383423174622983</v>
       </c>
       <c r="G19">
-        <v>95.96892129312836</v>
+        <v>95.968921293128361</v>
       </c>
       <c r="H19">
-        <v>62.23897576411959</v>
+        <v>62.238975764119587</v>
       </c>
       <c r="I19">
-        <v>61.06592237082807</v>
+        <v>61.065922370828069</v>
       </c>
       <c r="J19">
-        <v>73.63836890507557</v>
+        <v>73.638368905075566</v>
       </c>
       <c r="K19">
-        <v>64.75569070874518</v>
+        <v>64.755690708745178</v>
       </c>
       <c r="L19">
         <v>28.38637804182375</v>
       </c>
       <c r="M19">
-        <v>57.85927162089063</v>
+        <v>57.859271620890631</v>
       </c>
       <c r="N19">
-        <v>61.15473032944113</v>
+        <v>61.154730329441129</v>
       </c>
       <c r="O19">
-        <v>60.18158286940172</v>
+        <v>60.181582869401723</v>
       </c>
       <c r="P19">
-        <v>73.82261608635481</v>
+        <v>73.822616086354813</v>
       </c>
       <c r="Q19">
-        <v>53.86276930001526</v>
+        <v>53.862769300015259</v>
       </c>
       <c r="R19">
-        <v>67.47636546105112</v>
+        <v>67.476365461051117</v>
       </c>
       <c r="S19">
         <v>55.69209436715412</v>
       </c>
       <c r="T19">
-        <v>55.87742351194562</v>
+        <v>55.877423511945622</v>
       </c>
       <c r="U19">
-        <v>63.48822889586174</v>
+        <v>63.488228895861738</v>
       </c>
       <c r="V19">
-        <v>70.53866404320399</v>
+        <v>70.538664043203994</v>
       </c>
       <c r="W19">
-        <v>68.63736986268243</v>
+        <v>68.637369862682434</v>
       </c>
       <c r="X19">
-        <v>54.2457275583371</v>
+        <v>54.245727558337101</v>
       </c>
       <c r="Y19">
-        <v>68.16833484103891</v>
+        <v>68.168334841038913</v>
       </c>
       <c r="Z19">
-        <v>39.84422793830996</v>
+        <v>39.844227938309963</v>
       </c>
       <c r="AA19">
         <v>51.23881991875561</v>
@@ -2139,301 +2235,317 @@
         <v>47.79657959345348</v>
       </c>
       <c r="AC19">
-        <v>52.38357626680332</v>
+        <v>52.383576266803317</v>
       </c>
       <c r="AD19">
-        <v>54.66386393983994</v>
+        <v>54.663863939839942</v>
       </c>
       <c r="AE19">
         <v>56.29028649924129</v>
       </c>
+      <c r="AF19">
+        <f t="shared" si="0"/>
+        <v>63.061992896468517</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>83.37720199490985</v>
+        <v>83.377201994909854</v>
       </c>
       <c r="C20">
-        <v>80.24649525057154</v>
+        <v>80.246495250571542</v>
       </c>
       <c r="D20">
-        <v>57.12349560382312</v>
+        <v>57.123495603823123</v>
       </c>
       <c r="E20">
-        <v>55.14566411635037</v>
+        <v>55.145664116350368</v>
       </c>
       <c r="F20">
-        <v>55.65053252964731</v>
+        <v>55.650532529647307</v>
       </c>
       <c r="G20">
-        <v>79.68662581219846</v>
+        <v>79.686625812198457</v>
       </c>
       <c r="H20">
-        <v>52.69962049199216</v>
+        <v>52.699620491992157</v>
       </c>
       <c r="I20">
         <v>49.25274950023941</v>
       </c>
       <c r="J20">
-        <v>64.80362965657608</v>
+        <v>64.803629656576078</v>
       </c>
       <c r="K20">
-        <v>40.31513234299663</v>
+        <v>40.315132342996627</v>
       </c>
       <c r="L20">
-        <v>52.23427295208897</v>
+        <v>52.234272952088972</v>
       </c>
       <c r="M20">
-        <v>43.33700905884792</v>
+        <v>43.337009058847919</v>
       </c>
       <c r="N20">
-        <v>58.95385730948117</v>
+        <v>58.953857309481172</v>
       </c>
       <c r="O20">
-        <v>60.27517195468351</v>
+        <v>60.275171954683508</v>
       </c>
       <c r="P20">
-        <v>56.30383997413794</v>
+        <v>56.303839974137937</v>
       </c>
       <c r="Q20">
-        <v>65.95372035879907</v>
+        <v>65.953720358799075</v>
       </c>
       <c r="R20">
-        <v>70.06401462829069</v>
+        <v>70.064014628290693</v>
       </c>
       <c r="S20">
-        <v>49.95964517321288</v>
+        <v>49.959645173212877</v>
       </c>
       <c r="T20">
-        <v>45.67522920030068</v>
+        <v>45.675229200300677</v>
       </c>
       <c r="U20">
-        <v>47.25876241502733</v>
+        <v>47.258762415027327</v>
       </c>
       <c r="V20">
         <v>69.6143393992933</v>
       </c>
       <c r="W20">
-        <v>34.48440921875662</v>
+        <v>34.484409218756618</v>
       </c>
       <c r="X20">
-        <v>55.32482207382144</v>
+        <v>55.324822073821437</v>
       </c>
       <c r="Y20">
-        <v>72.28644913928659</v>
+        <v>72.286449139286589</v>
       </c>
       <c r="Z20">
-        <v>44.01917195949964</v>
+        <v>44.019171959499637</v>
       </c>
       <c r="AA20">
-        <v>54.86066631324609</v>
+        <v>54.860666313246092</v>
       </c>
       <c r="AB20">
-        <v>57.85643600758691</v>
+        <v>57.856436007586908</v>
       </c>
       <c r="AC20">
-        <v>54.50188739086626</v>
+        <v>54.501887390866258</v>
       </c>
       <c r="AD20">
-        <v>52.60802378598408</v>
+        <v>52.608023785984081</v>
       </c>
       <c r="AE20">
-        <v>56.06162903448311</v>
+        <v>56.061629034483111</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="0"/>
+        <v>57.331150154899973</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>79.71856420663049</v>
+        <v>79.718564206630489</v>
       </c>
       <c r="C21">
-        <v>71.19524577409177</v>
+        <v>71.195245774091774</v>
       </c>
       <c r="D21">
-        <v>59.33072910951513</v>
+        <v>59.330729109515133</v>
       </c>
       <c r="E21">
-        <v>52.02055383051331</v>
+        <v>52.020553830513308</v>
       </c>
       <c r="F21">
-        <v>58.92071827181562</v>
+        <v>58.920718271815623</v>
       </c>
       <c r="G21">
-        <v>73.8688660736037</v>
+        <v>73.868866073603698</v>
       </c>
       <c r="H21">
-        <v>57.51786407282523</v>
+        <v>57.517864072825233</v>
       </c>
       <c r="I21">
         <v>42.37029841174121</v>
       </c>
       <c r="J21">
-        <v>52.29944331284353</v>
+        <v>52.299443312843529</v>
       </c>
       <c r="K21">
         <v>37.43730870847066</v>
       </c>
       <c r="L21">
-        <v>56.28225926820399</v>
+        <v>56.282259268203987</v>
       </c>
       <c r="M21">
-        <v>34.01087448645409</v>
+        <v>34.010874486454092</v>
       </c>
       <c r="N21">
-        <v>58.16248791102389</v>
+        <v>58.162487911023888</v>
       </c>
       <c r="O21">
-        <v>54.04598736261556</v>
+        <v>54.045987362615563</v>
       </c>
       <c r="P21">
-        <v>40.23537518983347</v>
+        <v>40.235375189833469</v>
       </c>
       <c r="Q21">
-        <v>72.58077396941975</v>
+        <v>72.580773969419752</v>
       </c>
       <c r="R21">
-        <v>59.03737340306844</v>
+        <v>59.037373403068443</v>
       </c>
       <c r="S21">
-        <v>46.84888161240707</v>
+        <v>46.848881612407069</v>
       </c>
       <c r="T21">
-        <v>35.36296173258117</v>
+        <v>35.362961732581169</v>
       </c>
       <c r="U21">
-        <v>39.7620199331808</v>
+        <v>39.762019933180802</v>
       </c>
       <c r="V21">
-        <v>61.03395144644222</v>
+        <v>61.033951446442217</v>
       </c>
       <c r="W21">
-        <v>44.71294438787646</v>
+        <v>44.712944387876462</v>
       </c>
       <c r="X21">
-        <v>54.58257792098134</v>
+        <v>54.582577920981343</v>
       </c>
       <c r="Y21">
-        <v>58.35592568454381</v>
+        <v>58.355925684543813</v>
       </c>
       <c r="Z21">
-        <v>45.61606647699178</v>
+        <v>45.616066476991783</v>
       </c>
       <c r="AA21">
-        <v>52.49848708137534</v>
+        <v>52.498487081375337</v>
       </c>
       <c r="AB21">
-        <v>63.23517612848089</v>
+        <v>63.235176128480887</v>
       </c>
       <c r="AC21">
-        <v>55.50992309938827</v>
+        <v>55.509923099388267</v>
       </c>
       <c r="AD21">
-        <v>38.30718084337018</v>
+        <v>38.307180843370183</v>
       </c>
       <c r="AE21">
-        <v>52.11270838288872</v>
+        <v>52.112708382888719</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="0"/>
+        <v>53.565784269772593</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>85.31197344159845</v>
+        <v>85.311973441598454</v>
       </c>
       <c r="C22">
-        <v>75.07071319207422</v>
+        <v>75.070713192074223</v>
       </c>
       <c r="D22">
-        <v>64.49862724637376</v>
+        <v>64.498627246373758</v>
       </c>
       <c r="E22">
-        <v>58.98538837429712</v>
+        <v>58.985388374297123</v>
       </c>
       <c r="F22">
-        <v>64.70852114160338</v>
+        <v>64.708521141603384</v>
       </c>
       <c r="G22">
-        <v>77.46247411381418</v>
+        <v>77.462474113814181</v>
       </c>
       <c r="H22">
-        <v>63.65716279414281</v>
+        <v>63.657162794142813</v>
       </c>
       <c r="I22">
-        <v>46.30365693801445</v>
+        <v>46.303656938014448</v>
       </c>
       <c r="J22">
-        <v>59.71706292314339</v>
+        <v>59.717062923143388</v>
       </c>
       <c r="K22">
-        <v>34.30155031724757</v>
+        <v>34.301550317247568</v>
       </c>
       <c r="L22">
-        <v>61.80865550902506</v>
+        <v>61.808655509025058</v>
       </c>
       <c r="M22">
-        <v>41.56104320755195</v>
+        <v>41.561043207551947</v>
       </c>
       <c r="N22">
-        <v>71.54294674645899</v>
+        <v>71.542946746458995</v>
       </c>
       <c r="O22">
-        <v>62.44382892514947</v>
+        <v>62.443828925149468</v>
       </c>
       <c r="P22">
-        <v>46.90887664753158</v>
+        <v>46.908876647531578</v>
       </c>
       <c r="Q22">
-        <v>79.98655485975961</v>
+        <v>79.986554859759607</v>
       </c>
       <c r="R22">
-        <v>70.37128098521441</v>
+        <v>70.371280985214412</v>
       </c>
       <c r="S22">
-        <v>58.42001743837466</v>
+        <v>58.420017438374657</v>
       </c>
       <c r="T22">
-        <v>50.9247811319139</v>
+        <v>50.924781131913903</v>
       </c>
       <c r="U22">
-        <v>45.45438991450661</v>
+        <v>45.454389914506613</v>
       </c>
       <c r="V22">
-        <v>72.44133761764296</v>
+        <v>72.441337617642958</v>
       </c>
       <c r="W22">
-        <v>47.56232205398162</v>
+        <v>47.562322053981617</v>
       </c>
       <c r="X22">
-        <v>65.928267521097</v>
+        <v>65.928267521096998</v>
       </c>
       <c r="Y22">
-        <v>67.51824599074436</v>
+        <v>67.518245990744362</v>
       </c>
       <c r="Z22">
-        <v>52.20282958486701</v>
+        <v>52.202829584867011</v>
       </c>
       <c r="AA22">
-        <v>63.30839695490639</v>
+        <v>63.308396954906392</v>
       </c>
       <c r="AB22">
-        <v>70.06096675396365</v>
+        <v>70.060966753963655</v>
       </c>
       <c r="AC22">
         <v>59.42031165771516</v>
       </c>
       <c r="AD22">
-        <v>49.29864877289573</v>
+        <v>49.298648772895731</v>
       </c>
       <c r="AE22">
         <v>65.76855330753952</v>
       </c>
+      <c r="AF22">
+        <f t="shared" si="0"/>
+        <v>61.098312868771657</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2444,233 +2556,241 @@
         <v>104.7631505269545</v>
       </c>
       <c r="D23">
-        <v>75.0529847563262</v>
+        <v>75.052984756326197</v>
       </c>
       <c r="E23">
-        <v>75.8711215373368</v>
+        <v>75.871121537336805</v>
       </c>
       <c r="F23">
-        <v>71.78198691756403</v>
+        <v>71.781986917564026</v>
       </c>
       <c r="G23">
         <v>103.3641923008157</v>
       </c>
       <c r="H23">
-        <v>69.88472651445379</v>
+        <v>69.884726514453789</v>
       </c>
       <c r="I23">
-        <v>71.17252732503837</v>
+        <v>71.172527325038374</v>
       </c>
       <c r="J23">
-        <v>80.6911550295322</v>
+        <v>80.691155029532197</v>
       </c>
       <c r="K23">
         <v>70.0802553327255</v>
       </c>
       <c r="L23">
-        <v>36.19388616649687</v>
+        <v>36.193886166496867</v>
       </c>
       <c r="M23">
-        <v>58.58494100449364</v>
+        <v>58.584941004493643</v>
       </c>
       <c r="N23">
         <v>60.23646978091152</v>
       </c>
       <c r="O23">
-        <v>70.38129042342622</v>
+        <v>70.381290423426222</v>
       </c>
       <c r="P23">
-        <v>77.18162089621251</v>
+        <v>77.181620896212507</v>
       </c>
       <c r="Q23">
-        <v>66.36570085518574</v>
+        <v>66.365700855185736</v>
       </c>
       <c r="R23">
-        <v>77.23509834697349</v>
+        <v>77.235098346973487</v>
       </c>
       <c r="S23">
-        <v>53.67315242899998</v>
+        <v>53.673152428999977</v>
       </c>
       <c r="T23">
-        <v>57.42678762999024</v>
+        <v>57.426787629990237</v>
       </c>
       <c r="U23">
-        <v>63.74758982372066</v>
+        <v>63.747589823720659</v>
       </c>
       <c r="V23">
-        <v>76.58053359046279</v>
+        <v>76.580533590462792</v>
       </c>
       <c r="W23">
-        <v>65.07255565904877</v>
+        <v>65.072555659048774</v>
       </c>
       <c r="X23">
-        <v>62.25069025721723</v>
+        <v>62.250690257217229</v>
       </c>
       <c r="Y23">
-        <v>78.42424356770466</v>
+        <v>78.424243567704664</v>
       </c>
       <c r="Z23">
-        <v>41.5053648640751</v>
+        <v>41.505364864075098</v>
       </c>
       <c r="AA23">
-        <v>60.96090362546583</v>
+        <v>60.960903625465832</v>
       </c>
       <c r="AB23">
-        <v>60.64475623113126</v>
+        <v>60.644756231131261</v>
       </c>
       <c r="AC23">
-        <v>53.40446103401226</v>
+        <v>53.404461034012257</v>
       </c>
       <c r="AD23">
-        <v>59.71041226899487</v>
+        <v>59.710412268994872</v>
       </c>
       <c r="AE23">
-        <v>62.99576291968638</v>
+        <v>62.995762919686378</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="0"/>
+        <v>68.974404968532681</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>94.57568342778885</v>
+        <v>94.575683427788846</v>
       </c>
       <c r="C24">
-        <v>91.32332955402651</v>
+        <v>91.323329554026515</v>
       </c>
       <c r="D24">
         <v>69.14901255621804</v>
       </c>
       <c r="E24">
-        <v>68.26106442670424</v>
+        <v>68.261064426704237</v>
       </c>
       <c r="F24">
-        <v>73.68346221620335</v>
+        <v>73.683462216203353</v>
       </c>
       <c r="G24">
-        <v>93.10263993303305</v>
+        <v>93.102639933033046</v>
       </c>
       <c r="H24">
         <v>69.12458559248897</v>
       </c>
       <c r="I24">
-        <v>65.26125381878592</v>
+        <v>65.261253818785917</v>
       </c>
       <c r="J24">
-        <v>76.87806565703033</v>
+        <v>76.878065657030334</v>
       </c>
       <c r="K24">
-        <v>48.77136284063972</v>
+        <v>48.771362840639718</v>
       </c>
       <c r="L24">
-        <v>70.04747274170568</v>
+        <v>70.047472741705676</v>
       </c>
       <c r="M24">
-        <v>57.70448242265645</v>
+        <v>57.704482422656447</v>
       </c>
       <c r="N24">
         <v>75.73887775882784</v>
       </c>
       <c r="O24">
-        <v>74.08233735738455</v>
+        <v>74.082337357384546</v>
       </c>
       <c r="P24">
-        <v>65.31687585022215</v>
+        <v>65.316875850222146</v>
       </c>
       <c r="Q24">
-        <v>81.66632121525576</v>
+        <v>81.666321215255763</v>
       </c>
       <c r="R24">
         <v>81.1258346130668</v>
       </c>
       <c r="S24">
-        <v>68.67541408684771</v>
+        <v>68.675414086847709</v>
       </c>
       <c r="T24">
-        <v>63.60268927752453</v>
+        <v>63.602689277524533</v>
       </c>
       <c r="U24">
-        <v>58.86770124609929</v>
+        <v>58.867701246099287</v>
       </c>
       <c r="V24">
-        <v>81.29713376456351</v>
+        <v>81.297133764563512</v>
       </c>
       <c r="W24">
-        <v>40.37083956892648</v>
+        <v>40.370839568926478</v>
       </c>
       <c r="X24">
-        <v>72.44133761764296</v>
+        <v>72.441337617642958</v>
       </c>
       <c r="Y24">
-        <v>82.73064350650247</v>
+        <v>82.730643506502474</v>
       </c>
       <c r="Z24">
-        <v>65.17254742220838</v>
+        <v>65.172547422208382</v>
       </c>
       <c r="AA24">
-        <v>71.35790440331984</v>
+        <v>71.357904403319836</v>
       </c>
       <c r="AB24">
-        <v>75.02263547312459</v>
+        <v>75.022635473124595</v>
       </c>
       <c r="AC24">
-        <v>71.65631587073582</v>
+        <v>71.656315870735824</v>
       </c>
       <c r="AD24">
-        <v>67.52873616715578</v>
+        <v>67.528736167155785</v>
       </c>
       <c r="AE24">
-        <v>72.24390833604357</v>
+        <v>72.243908336043575</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="0"/>
+        <v>71.559348957424461</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>97.5491062234811</v>
+        <v>97.549106223481104</v>
       </c>
       <c r="C25">
         <v>100.3698628822417</v>
       </c>
       <c r="D25">
-        <v>70.95002642705639</v>
+        <v>70.950026427056386</v>
       </c>
       <c r="E25">
-        <v>72.26228990051912</v>
+        <v>72.262289900519121</v>
       </c>
       <c r="F25">
-        <v>66.77155160820114</v>
+        <v>66.771551608201136</v>
       </c>
       <c r="G25">
-        <v>95.07308044341468</v>
+        <v>95.073080443414682</v>
       </c>
       <c r="H25">
-        <v>65.91248538150164</v>
+        <v>65.912485381501639</v>
       </c>
       <c r="I25">
-        <v>64.62213887928294</v>
+        <v>64.622138879282943</v>
       </c>
       <c r="J25">
-        <v>79.29973465697516</v>
+        <v>79.299734656975161</v>
       </c>
       <c r="K25">
-        <v>54.63331839790318</v>
+        <v>54.633318397903182</v>
       </c>
       <c r="L25">
-        <v>53.35469949623307</v>
+        <v>53.354699496233067</v>
       </c>
       <c r="M25">
-        <v>55.08842323937036</v>
+        <v>55.088423239370357</v>
       </c>
       <c r="N25">
-        <v>74.97581207184976</v>
+        <v>74.975812071849759</v>
       </c>
       <c r="O25">
-        <v>74.16598782460866</v>
+        <v>74.165987824608663</v>
       </c>
       <c r="P25">
-        <v>69.40149644159939</v>
+        <v>69.401496441599392</v>
       </c>
       <c r="Q25">
         <v>69.2911279794655</v>
@@ -2679,176 +2799,184 @@
         <v>82.26038434953567</v>
       </c>
       <c r="S25">
-        <v>58.17824622084559</v>
+        <v>58.178246220845587</v>
       </c>
       <c r="T25">
-        <v>63.34411229546121</v>
+        <v>63.344112295461208</v>
       </c>
       <c r="U25">
-        <v>56.41496643179006</v>
+        <v>56.414966431790063</v>
       </c>
       <c r="V25">
         <v>79.35398343813624</v>
       </c>
       <c r="W25">
-        <v>50.94822228661827</v>
+        <v>50.948222286618268</v>
       </c>
       <c r="X25">
-        <v>62.89997019077195</v>
+        <v>62.899970190771953</v>
       </c>
       <c r="Y25">
-        <v>82.1688429394013</v>
+        <v>82.168842939401301</v>
       </c>
       <c r="Z25">
-        <v>45.6523605176483</v>
+        <v>45.652360517648297</v>
       </c>
       <c r="AA25">
-        <v>63.96178058028091</v>
+        <v>63.961780580280909</v>
       </c>
       <c r="AB25">
-        <v>63.92830456847734</v>
+        <v>63.928304568477337</v>
       </c>
       <c r="AC25">
-        <v>60.95191068922013</v>
+        <v>60.951910689220128</v>
       </c>
       <c r="AD25">
-        <v>64.15380688236669</v>
+        <v>64.153806882366695</v>
       </c>
       <c r="AE25">
-        <v>68.46119262643131</v>
+        <v>68.461192626431313</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="0"/>
+        <v>68.879974195689627</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>89.74630041121472</v>
+        <v>89.746300411214719</v>
       </c>
       <c r="C26">
-        <v>84.47995016077286</v>
+        <v>84.479950160772859</v>
       </c>
       <c r="D26">
         <v>69.78185876357837</v>
       </c>
       <c r="E26">
-        <v>66.45557726782606</v>
+        <v>66.455577267826058</v>
       </c>
       <c r="F26">
-        <v>73.57939306173525</v>
+        <v>73.579393061735246</v>
       </c>
       <c r="G26">
-        <v>88.7111857612481</v>
+        <v>88.711185761248103</v>
       </c>
       <c r="H26">
-        <v>69.23422278155989</v>
+        <v>69.234222781559893</v>
       </c>
       <c r="I26">
-        <v>58.17303123011555</v>
+        <v>58.173031230115548</v>
       </c>
       <c r="J26">
-        <v>67.41176717878464</v>
+        <v>67.411767178784643</v>
       </c>
       <c r="K26">
-        <v>47.15969103305633</v>
+        <v>47.159691033056333</v>
       </c>
       <c r="L26">
-        <v>65.12108113609089</v>
+        <v>65.121081136090893</v>
       </c>
       <c r="M26">
-        <v>33.58330748551528</v>
+        <v>33.583307485515277</v>
       </c>
       <c r="N26">
         <v>66.19712906035528</v>
       </c>
       <c r="O26">
-        <v>67.51211311066086</v>
+        <v>67.512113110660863</v>
       </c>
       <c r="P26">
-        <v>34.93777951587651</v>
+        <v>34.937779515876507</v>
       </c>
       <c r="Q26">
-        <v>82.19140516704489</v>
+        <v>82.191405167044891</v>
       </c>
       <c r="R26">
         <v>69.30625347566648</v>
       </c>
       <c r="S26">
-        <v>60.01800944994205</v>
+        <v>60.018009449942049</v>
       </c>
       <c r="T26">
-        <v>48.18051451745473</v>
+        <v>48.180514517454732</v>
       </c>
       <c r="U26">
-        <v>29.28554642083133</v>
+        <v>29.285546420831331</v>
       </c>
       <c r="V26">
-        <v>73.59220407081175</v>
+        <v>73.592204070811746</v>
       </c>
       <c r="W26">
-        <v>45.1099928877553</v>
+        <v>45.109992887755297</v>
       </c>
       <c r="X26">
-        <v>68.69820018263458</v>
+        <v>68.698200182634579</v>
       </c>
       <c r="Y26">
-        <v>68.82492129793297</v>
+        <v>68.824921297932974</v>
       </c>
       <c r="Z26">
-        <v>55.59835504161371</v>
+        <v>55.598355041613708</v>
       </c>
       <c r="AA26">
-        <v>65.63406683397477</v>
+        <v>65.634066833974771</v>
       </c>
       <c r="AB26">
-        <v>74.42685517226516</v>
+        <v>74.426855172265164</v>
       </c>
       <c r="AC26">
-        <v>66.62705203218884</v>
+        <v>66.627052032188843</v>
       </c>
       <c r="AD26">
-        <v>51.27865052826566</v>
+        <v>51.278650528265658</v>
       </c>
       <c r="AE26">
-        <v>65.72825210668545</v>
+        <v>65.728252106685446</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="0"/>
+        <v>63.552822238115269</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>101.3676785272308</v>
+        <v>101.36767852723079</v>
       </c>
       <c r="C27">
         <v>105.2197848553208</v>
       </c>
       <c r="D27">
-        <v>69.88985009165017</v>
+        <v>69.889850091650175</v>
       </c>
       <c r="E27">
-        <v>71.88615855411017</v>
+        <v>71.886158554110168</v>
       </c>
       <c r="F27">
-        <v>63.71845624830114</v>
+        <v>63.718456248301138</v>
       </c>
       <c r="G27">
-        <v>98.79833996159383</v>
+        <v>98.798339961593825</v>
       </c>
       <c r="H27">
-        <v>63.1923732871829</v>
+        <v>63.192373287182903</v>
       </c>
       <c r="I27">
-        <v>68.97000782344936</v>
+        <v>68.970007823449365</v>
       </c>
       <c r="J27">
-        <v>83.21273565386491</v>
+        <v>83.212735653864911</v>
       </c>
       <c r="K27">
-        <v>68.80098488272776</v>
+        <v>68.800984882727761</v>
       </c>
       <c r="L27">
-        <v>42.93375468866736</v>
+        <v>42.933754688667364</v>
       </c>
       <c r="M27">
         <v>56.26053142153328</v>
@@ -2857,248 +2985,260 @@
         <v>63.92512710194638</v>
       </c>
       <c r="O27">
-        <v>72.03288817732263</v>
+        <v>72.032888177322633</v>
       </c>
       <c r="P27">
-        <v>70.94516294881092</v>
+        <v>70.945162948810918</v>
       </c>
       <c r="Q27">
-        <v>67.26854607962527</v>
+        <v>67.268546079625267</v>
       </c>
       <c r="R27">
-        <v>83.43710205897614</v>
+        <v>83.437102058976137</v>
       </c>
       <c r="S27">
-        <v>59.54958980407282</v>
+        <v>59.549589804072824</v>
       </c>
       <c r="T27">
-        <v>57.75444156801564</v>
+        <v>57.754441568015643</v>
       </c>
       <c r="U27">
-        <v>57.30230961750146</v>
+        <v>57.302309617501457</v>
       </c>
       <c r="V27">
-        <v>85.41851624013769</v>
+        <v>85.418516240137691</v>
       </c>
       <c r="W27">
-        <v>62.05919553136344</v>
+        <v>62.059195531363443</v>
       </c>
       <c r="X27">
-        <v>60.88002631542357</v>
+        <v>60.880026315423571</v>
       </c>
       <c r="Y27">
-        <v>85.8589110352948</v>
+        <v>85.858911035294796</v>
       </c>
       <c r="Z27">
-        <v>41.87888663555101</v>
+        <v>41.878886635551012</v>
       </c>
       <c r="AA27">
-        <v>59.45792454893348</v>
+        <v>59.457924548933477</v>
       </c>
       <c r="AB27">
         <v>50.19866781100869</v>
       </c>
       <c r="AC27">
-        <v>65.01245874189551</v>
+        <v>65.012458741895514</v>
       </c>
       <c r="AD27">
-        <v>67.36448588338912</v>
+        <v>67.364485883389122</v>
       </c>
       <c r="AE27">
-        <v>68.55289928223313</v>
+        <v>68.552899282233128</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="0"/>
+        <v>69.10492651257114</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>103.995430087897</v>
+        <v>103.99543008789701</v>
       </c>
       <c r="C28">
         <v>107.9703976598833</v>
       </c>
       <c r="D28">
-        <v>76.84057494796178</v>
+        <v>76.840574947961784</v>
       </c>
       <c r="E28">
         <v>79.02692710926658</v>
       </c>
       <c r="F28">
-        <v>69.52133590368739</v>
+        <v>69.521335903687387</v>
       </c>
       <c r="G28">
-        <v>100.1697647538085</v>
+        <v>100.16976475380849</v>
       </c>
       <c r="H28">
-        <v>72.06104544643613</v>
+        <v>72.061045446436125</v>
       </c>
       <c r="I28">
-        <v>71.64768401700086</v>
+        <v>71.647684017000856</v>
       </c>
       <c r="J28">
-        <v>84.4671872928575</v>
+        <v>84.467187292857503</v>
       </c>
       <c r="K28">
         <v>72.03142398749776</v>
       </c>
       <c r="L28">
-        <v>50.60434249317608</v>
+        <v>50.604342493176077</v>
       </c>
       <c r="M28">
-        <v>59.17862261830702</v>
+        <v>59.178622618307017</v>
       </c>
       <c r="N28">
-        <v>73.53115482002623</v>
+        <v>73.531154820026231</v>
       </c>
       <c r="O28">
-        <v>78.47919708432292</v>
+        <v>78.479197084322919</v>
       </c>
       <c r="P28">
-        <v>76.33978661768275</v>
+        <v>76.339786617682748</v>
       </c>
       <c r="Q28">
-        <v>70.64748904478724</v>
+        <v>70.647489044787235</v>
       </c>
       <c r="R28">
-        <v>87.93042941250012</v>
+        <v>87.930429412500118</v>
       </c>
       <c r="S28">
-        <v>58.59031934401223</v>
+        <v>58.590319344012229</v>
       </c>
       <c r="T28">
-        <v>65.04779893150369</v>
+        <v>65.047798931503692</v>
       </c>
       <c r="U28">
-        <v>62.68834122067675</v>
+        <v>62.688341220676747</v>
       </c>
       <c r="V28">
-        <v>86.25443829160329</v>
+        <v>86.254438291603293</v>
       </c>
       <c r="W28">
-        <v>62.85484683644797</v>
+        <v>62.854846836447969</v>
       </c>
       <c r="X28">
-        <v>66.40653676408671</v>
+        <v>66.406536764086709</v>
       </c>
       <c r="Y28">
-        <v>87.06362915037101</v>
+        <v>87.063629150371014</v>
       </c>
       <c r="Z28">
-        <v>41.4395267226835</v>
+        <v>41.439526722683503</v>
       </c>
       <c r="AA28">
-        <v>65.51900169670881</v>
+        <v>65.519001696708813</v>
       </c>
       <c r="AB28">
-        <v>61.10985241759303</v>
+        <v>61.109852417593032</v>
       </c>
       <c r="AC28">
-        <v>60.59958659787485</v>
+        <v>60.599586597874847</v>
       </c>
       <c r="AD28">
-        <v>68.88520795497391</v>
+        <v>68.885207954973907</v>
       </c>
       <c r="AE28">
-        <v>74.13877050279878</v>
+        <v>74.138770502798778</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="0"/>
+        <v>73.168021657614446</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>93.2344714505674</v>
+        <v>93.234471450567398</v>
       </c>
       <c r="C29">
-        <v>87.37914272487075</v>
+        <v>87.379142724870746</v>
       </c>
       <c r="D29">
-        <v>70.89662001228737</v>
+        <v>70.896620012287372</v>
       </c>
       <c r="E29">
-        <v>67.70760897048426</v>
+        <v>67.707608970484259</v>
       </c>
       <c r="F29">
-        <v>67.32688062109121</v>
+        <v>67.326880621091206</v>
       </c>
       <c r="G29">
-        <v>89.08757687897156</v>
+        <v>89.087576878971561</v>
       </c>
       <c r="H29">
-        <v>65.13161754606335</v>
+        <v>65.131617546063353</v>
       </c>
       <c r="I29">
-        <v>61.71203286231948</v>
+        <v>61.712032862319482</v>
       </c>
       <c r="J29">
-        <v>70.97419205246369</v>
+        <v>70.974192052463692</v>
       </c>
       <c r="K29">
-        <v>52.97016652481533</v>
+        <v>52.970166524815333</v>
       </c>
       <c r="L29">
-        <v>57.80636228680485</v>
+        <v>57.806362286804848</v>
       </c>
       <c r="M29">
         <v>28.82815464090617</v>
       </c>
       <c r="N29">
-        <v>59.64788170309711</v>
+        <v>59.647881703097113</v>
       </c>
       <c r="O29">
-        <v>64.00246170395845</v>
+        <v>64.002461703958446</v>
       </c>
       <c r="P29">
-        <v>57.09396950787944</v>
+        <v>57.093969507879443</v>
       </c>
       <c r="Q29">
-        <v>75.07596846972183</v>
+        <v>75.075968469721829</v>
       </c>
       <c r="R29">
-        <v>74.2170591912668</v>
+        <v>74.217059191266799</v>
       </c>
       <c r="S29">
-        <v>56.33371085918863</v>
+        <v>56.333710859188628</v>
       </c>
       <c r="T29">
-        <v>46.26871805910915</v>
+        <v>46.268718059109148</v>
       </c>
       <c r="U29">
         <v>41.06353055530743</v>
       </c>
       <c r="V29">
-        <v>74.505417867875</v>
+        <v>74.505417867874996</v>
       </c>
       <c r="W29">
-        <v>54.26307926051869</v>
+        <v>54.263079260518687</v>
       </c>
       <c r="X29">
-        <v>62.41085308929316</v>
+        <v>62.410853089293163</v>
       </c>
       <c r="Y29">
-        <v>76.03639821931775</v>
+        <v>76.036398219317746</v>
       </c>
       <c r="Z29">
         <v>46.33542224008179</v>
       </c>
       <c r="AA29">
-        <v>60.1882679944079</v>
+        <v>60.188267994407902</v>
       </c>
       <c r="AB29">
-        <v>66.4659804900221</v>
+        <v>66.465980490022105</v>
       </c>
       <c r="AC29">
-        <v>59.94754651637825</v>
+        <v>59.947546516378253</v>
       </c>
       <c r="AD29">
-        <v>54.26382312369817</v>
+        <v>54.263823123698167</v>
       </c>
       <c r="AE29">
-        <v>62.61664115872074</v>
+        <v>62.616641158720739</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="0"/>
+        <v>63.459718552716254</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3106,28 +3246,28 @@
         <v>97.51141760070972</v>
       </c>
       <c r="C30">
-        <v>92.76240932259863</v>
+        <v>92.762409322598629</v>
       </c>
       <c r="D30">
-        <v>76.5899015591046</v>
+        <v>76.589901559104604</v>
       </c>
       <c r="E30">
-        <v>71.71413156879659</v>
+        <v>71.714131568796589</v>
       </c>
       <c r="F30">
-        <v>68.77842215525642</v>
+        <v>68.778422155256422</v>
       </c>
       <c r="G30">
-        <v>95.03166961159141</v>
+        <v>95.031669611591411</v>
       </c>
       <c r="H30">
-        <v>69.84771381369615</v>
+        <v>69.847713813696146</v>
       </c>
       <c r="I30">
         <v>67.77882228247995</v>
       </c>
       <c r="J30">
-        <v>75.54691216389986</v>
+        <v>75.546912163899862</v>
       </c>
       <c r="K30">
         <v>65.65120508541078</v>
@@ -3139,156 +3279,164 @@
         <v>56.27339791144658</v>
       </c>
       <c r="N30">
-        <v>50.6412525351944</v>
+        <v>50.641252535194397</v>
       </c>
       <c r="O30">
-        <v>66.17596098659996</v>
+        <v>66.175960986599961</v>
       </c>
       <c r="P30">
         <v>74.18155866408668</v>
       </c>
       <c r="Q30">
-        <v>73.92493377293843</v>
+        <v>73.924933772938431</v>
       </c>
       <c r="R30">
-        <v>77.33493847112916</v>
+        <v>77.334938471129163</v>
       </c>
       <c r="S30">
-        <v>46.72085767263553</v>
+        <v>46.720857672635532</v>
       </c>
       <c r="T30">
-        <v>48.28639063787367</v>
+        <v>48.286390637873673</v>
       </c>
       <c r="U30">
-        <v>65.74744529257391</v>
+        <v>65.747445292573914</v>
       </c>
       <c r="V30">
-        <v>76.86627660532717</v>
+        <v>76.866276605327172</v>
       </c>
       <c r="W30">
-        <v>62.36385170914318</v>
+        <v>62.363851709143177</v>
       </c>
       <c r="X30">
-        <v>57.45439767763648</v>
+        <v>57.454397677636479</v>
       </c>
       <c r="Y30">
-        <v>79.59855330029561</v>
+        <v>79.598553300295606</v>
       </c>
       <c r="Z30">
-        <v>46.33530983494121</v>
+        <v>46.335309834941206</v>
       </c>
       <c r="AA30">
-        <v>58.43800133474792</v>
+        <v>58.438001334747923</v>
       </c>
       <c r="AB30">
-        <v>67.43816612275278</v>
+        <v>67.438166122752776</v>
       </c>
       <c r="AC30">
-        <v>58.97642537489026</v>
+        <v>58.976425374890262</v>
       </c>
       <c r="AD30">
         <v>55.40593567780742</v>
       </c>
       <c r="AE30">
-        <v>60.92592838849482</v>
+        <v>60.925928388494818</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="0"/>
+        <v>67.109804493808824</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>94.91704162934423</v>
+        <v>94.917041629344226</v>
       </c>
       <c r="C31">
-        <v>84.44424627626601</v>
+        <v>84.444246276266014</v>
       </c>
       <c r="D31">
-        <v>58.42710469037466</v>
+        <v>58.427104690374662</v>
       </c>
       <c r="E31">
-        <v>57.23557860573555</v>
+        <v>57.235578605735547</v>
       </c>
       <c r="F31">
-        <v>58.90129013159785</v>
+        <v>58.901290131597847</v>
       </c>
       <c r="G31">
-        <v>88.73956804886983</v>
+        <v>88.739568048869828</v>
       </c>
       <c r="H31">
-        <v>61.77034499525912</v>
+        <v>61.770344995259123</v>
       </c>
       <c r="I31">
-        <v>59.80436856952843</v>
+        <v>59.804368569528428</v>
       </c>
       <c r="J31">
-        <v>53.84120169535595</v>
+        <v>53.841201695355949</v>
       </c>
       <c r="K31">
-        <v>64.17361298981589</v>
+        <v>64.173612989815894</v>
       </c>
       <c r="L31">
         <v>51.70977704135521</v>
       </c>
       <c r="M31">
-        <v>61.48676602191185</v>
+        <v>61.486766021911848</v>
       </c>
       <c r="N31">
-        <v>66.85461137797452</v>
+        <v>66.854611377974521</v>
       </c>
       <c r="O31">
-        <v>38.03322286720739</v>
+        <v>38.033222867207392</v>
       </c>
       <c r="P31">
-        <v>71.03168307171103</v>
+        <v>71.031683071711029</v>
       </c>
       <c r="Q31">
-        <v>49.87016998333439</v>
+        <v>49.870169983334392</v>
       </c>
       <c r="R31">
-        <v>47.24785048020703</v>
+        <v>47.247850480207028</v>
       </c>
       <c r="S31">
-        <v>59.72011543441624</v>
+        <v>59.720115434416243</v>
       </c>
       <c r="T31">
-        <v>51.53199855429634</v>
+        <v>51.531998554296337</v>
       </c>
       <c r="U31">
-        <v>69.00860453595624</v>
+        <v>69.008604535956238</v>
       </c>
       <c r="V31">
         <v>46.23946952189943</v>
       </c>
       <c r="W31">
-        <v>73.41576806109161</v>
+        <v>73.415768061091612</v>
       </c>
       <c r="X31">
-        <v>44.47087647176146</v>
+        <v>44.470876471761457</v>
       </c>
       <c r="Y31">
         <v>58.43858064954464</v>
       </c>
       <c r="Z31">
-        <v>65.1925034033822</v>
+        <v>65.192503403382204</v>
       </c>
       <c r="AA31">
-        <v>42.16408300714404</v>
+        <v>42.164083007144043</v>
       </c>
       <c r="AB31">
-        <v>46.12672196424396</v>
+        <v>46.126721964243963</v>
       </c>
       <c r="AC31">
-        <v>62.50029166598612</v>
+        <v>62.500291665986119</v>
       </c>
       <c r="AD31">
-        <v>51.00975192712338</v>
+        <v>51.009751927123382</v>
       </c>
       <c r="AE31">
-        <v>39.11245139551684</v>
+        <v>39.112451395516842</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="0"/>
+        <v>59.247321835607046</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3308,19 +3456,19 @@
         <v>107.9068126131679</v>
       </c>
       <c r="G32">
-        <v>77.62478193742855</v>
+        <v>77.624781937428551</v>
       </c>
       <c r="H32">
-        <v>108.6703611654684</v>
+        <v>108.67036116546841</v>
       </c>
       <c r="I32">
-        <v>91.32934621011292</v>
+        <v>91.329346210112917</v>
       </c>
       <c r="J32">
         <v>109.6197024565688</v>
       </c>
       <c r="K32">
-        <v>103.9862896611856</v>
+        <v>103.98628966118559</v>
       </c>
       <c r="L32">
         <v>119.0032825177524</v>
@@ -3350,13 +3498,13 @@
         <v>114.6418449091198</v>
       </c>
       <c r="U32">
-        <v>117.0869290669686</v>
+        <v>117.08692906696859</v>
       </c>
       <c r="V32">
         <v>117.5549295365079</v>
       </c>
       <c r="W32">
-        <v>116.2302738639981</v>
+        <v>116.23027386399809</v>
       </c>
       <c r="X32">
         <v>114.8715995144144</v>
@@ -3365,7 +3513,7 @@
         <v>113.9303972461549</v>
       </c>
       <c r="Z32">
-        <v>109.9062810989436</v>
+        <v>109.90628109894359</v>
       </c>
       <c r="AA32">
         <v>114.0633162071254</v>
@@ -3377,13 +3525,17 @@
         <v>114.2809039166212</v>
       </c>
       <c r="AD32">
-        <v>112.9234622801362</v>
+        <v>112.92346228013621</v>
       </c>
       <c r="AE32">
-        <v>117.6018950917317</v>
+        <v>117.60189509173171</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="0"/>
+        <v>112.0276577648437</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3394,102 +3546,106 @@
         <v>106.2005522192171</v>
       </c>
       <c r="D33">
-        <v>76.00409459912889</v>
+        <v>76.004094599128891</v>
       </c>
       <c r="E33">
-        <v>78.23389078057326</v>
+        <v>78.233890780573262</v>
       </c>
       <c r="F33">
-        <v>71.41133050854044</v>
+        <v>71.411330508540445</v>
       </c>
       <c r="G33">
-        <v>99.74114935672237</v>
+        <v>99.741149356722374</v>
       </c>
       <c r="H33">
-        <v>71.33750109514631</v>
+        <v>71.337501095146308</v>
       </c>
       <c r="I33">
-        <v>70.49383099487028</v>
+        <v>70.493830994870279</v>
       </c>
       <c r="J33">
-        <v>86.5593335762624</v>
+        <v>86.559333576262404</v>
       </c>
       <c r="K33">
-        <v>64.79597386540823</v>
+        <v>64.795973865408229</v>
       </c>
       <c r="L33">
-        <v>58.92332588485933</v>
+        <v>58.923325884859331</v>
       </c>
       <c r="M33">
-        <v>64.3427508219328</v>
+        <v>64.342750821932796</v>
       </c>
       <c r="N33">
-        <v>82.26567099951231</v>
+        <v>82.265670999512309</v>
       </c>
       <c r="O33">
-        <v>82.55037918850928</v>
+        <v>82.550379188509282</v>
       </c>
       <c r="P33">
-        <v>77.78395560782442</v>
+        <v>77.783955607824424</v>
       </c>
       <c r="Q33">
-        <v>73.2850278876934</v>
+        <v>73.285027887693403</v>
       </c>
       <c r="R33">
-        <v>89.81775529741692</v>
+        <v>89.817755297416923</v>
       </c>
       <c r="S33">
         <v>64.78025756998295</v>
       </c>
       <c r="T33">
-        <v>71.38727638148599</v>
+        <v>71.387276381485989</v>
       </c>
       <c r="U33">
-        <v>66.46255211269977</v>
+        <v>66.462552112699768</v>
       </c>
       <c r="V33">
-        <v>87.35987291562031</v>
+        <v>87.359872915620315</v>
       </c>
       <c r="W33">
-        <v>60.81225376791534</v>
+        <v>60.812253767915337</v>
       </c>
       <c r="X33">
         <v>68.49828921221318</v>
       </c>
       <c r="Y33">
-        <v>89.7690033270579</v>
+        <v>89.769003327057902</v>
       </c>
       <c r="Z33">
         <v>49.35556051922282</v>
       </c>
       <c r="AA33">
-        <v>70.75364389909541</v>
+        <v>70.753643899095408</v>
       </c>
       <c r="AB33">
-        <v>68.01968158800314</v>
+        <v>68.019681588003138</v>
       </c>
       <c r="AC33">
-        <v>66.73907526079955</v>
+        <v>66.739075260799552</v>
       </c>
       <c r="AD33">
-        <v>71.68781785747609</v>
+        <v>71.687817857476091</v>
       </c>
       <c r="AE33">
-        <v>76.13739978376812</v>
+        <v>76.137399783768117</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="0"/>
+        <v>75.578978468599558</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>118.4008023621462</v>
+        <v>118.40080236214619</v>
       </c>
       <c r="C34">
         <v>109.2851654884291</v>
       </c>
       <c r="D34">
-        <v>117.2359177755122</v>
+        <v>117.23591777551221</v>
       </c>
       <c r="E34">
         <v>113.8459874311197</v>
@@ -3498,25 +3654,25 @@
         <v>112.6908566240698</v>
       </c>
       <c r="G34">
-        <v>79.70659085044348</v>
+        <v>79.706590850443476</v>
       </c>
       <c r="H34">
         <v>113.7888784291623</v>
       </c>
       <c r="I34">
-        <v>96.68587722189145</v>
+        <v>96.685877221891445</v>
       </c>
       <c r="J34">
         <v>115.0499891351581</v>
       </c>
       <c r="K34">
-        <v>107.9949844514395</v>
+        <v>107.99498445143951</v>
       </c>
       <c r="L34">
         <v>124.2913454013057</v>
       </c>
       <c r="M34">
-        <v>120.7297688365771</v>
+        <v>120.72976883657709</v>
       </c>
       <c r="N34">
         <v>130.1065368745937</v>
@@ -3528,16 +3684,16 @@
         <v>120.7551650896695</v>
       </c>
       <c r="Q34">
-        <v>121.6778854702037</v>
+        <v>121.67788547020371</v>
       </c>
       <c r="R34">
-        <v>125.461180500185</v>
+        <v>125.46118050018499</v>
       </c>
       <c r="S34">
         <v>119.4698467013051</v>
       </c>
       <c r="T34">
-        <v>120.114073384429</v>
+        <v>120.11407338442901</v>
       </c>
       <c r="U34">
         <v>122.1290940971888</v>
@@ -3555,7 +3711,7 @@
         <v>119.6049377987102</v>
       </c>
       <c r="Z34">
-        <v>115.4375056397761</v>
+        <v>115.43750563977611</v>
       </c>
       <c r="AA34">
         <v>119.1886088481893</v>
@@ -3564,16 +3720,20 @@
         <v>118.6548083377436</v>
       </c>
       <c r="AC34">
-        <v>118.7871981212622</v>
+        <v>118.78719812126219</v>
       </c>
       <c r="AD34">
-        <v>118.2735397641135</v>
+        <v>118.27353976411349</v>
       </c>
       <c r="AE34">
         <v>121.6291965702863</v>
       </c>
+      <c r="AF34">
+        <f t="shared" si="0"/>
+        <v>116.75623125228371</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3584,34 +3744,34 @@
         <v>114.1090829535493</v>
       </c>
       <c r="D35">
-        <v>79.87069628468254</v>
+        <v>79.870696284682538</v>
       </c>
       <c r="E35">
-        <v>83.14149272475206</v>
+        <v>83.141492724752055</v>
       </c>
       <c r="F35">
-        <v>72.81612115459049</v>
+        <v>72.816121154590491</v>
       </c>
       <c r="G35">
         <v>106.8581005157463</v>
       </c>
       <c r="H35">
-        <v>73.43846630569931</v>
+        <v>73.438466305699308</v>
       </c>
       <c r="I35">
-        <v>79.99135695498607</v>
+        <v>79.991356954986074</v>
       </c>
       <c r="J35">
-        <v>94.57382477902294</v>
+        <v>94.573824779022942</v>
       </c>
       <c r="K35">
-        <v>87.10595798604517</v>
+        <v>87.105957986045169</v>
       </c>
       <c r="L35">
-        <v>55.85448915112673</v>
+        <v>55.854489151126728</v>
       </c>
       <c r="M35">
-        <v>80.13564346885016</v>
+        <v>80.135643468850162</v>
       </c>
       <c r="N35">
         <v>75.29329803619089</v>
@@ -3620,55 +3780,59 @@
         <v>83.16377541734542</v>
       </c>
       <c r="P35">
-        <v>90.78666614652175</v>
+        <v>90.786666146521753</v>
       </c>
       <c r="Q35">
-        <v>74.48047493023479</v>
+        <v>74.480474930234791</v>
       </c>
       <c r="R35">
-        <v>91.96933932023215</v>
+        <v>91.969339320232152</v>
       </c>
       <c r="S35">
-        <v>74.14523332622267</v>
+        <v>74.145233326222666</v>
       </c>
       <c r="T35">
-        <v>74.40715341394716</v>
+        <v>74.407153413947157</v>
       </c>
       <c r="U35">
-        <v>83.04927628623062</v>
+        <v>83.049276286230622</v>
       </c>
       <c r="V35">
-        <v>97.06423721347288</v>
+        <v>97.064237213472879</v>
       </c>
       <c r="W35">
-        <v>84.00677366042177</v>
+        <v>84.006773660421771</v>
       </c>
       <c r="X35">
-        <v>73.28605838880044</v>
+        <v>73.286058388800441</v>
       </c>
       <c r="Y35">
-        <v>95.51798205486406</v>
+        <v>95.517982054864063</v>
       </c>
       <c r="Z35">
         <v>59.51800760414168</v>
       </c>
       <c r="AA35">
-        <v>70.16587489656207</v>
+        <v>70.165874896562073</v>
       </c>
       <c r="AB35">
         <v>55.89992918898318</v>
       </c>
       <c r="AC35">
-        <v>79.44765375704937</v>
+        <v>79.447653757049366</v>
       </c>
       <c r="AD35">
-        <v>81.71694349501006</v>
+        <v>81.716943495010057</v>
       </c>
       <c r="AE35">
-        <v>79.79766078442817</v>
+        <v>79.797660784428174</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="0"/>
+        <v>82.018020846004489</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3676,7 +3840,7 @@
         <v>116.0986245611894</v>
       </c>
       <c r="C36">
-        <v>106.6796704313119</v>
+        <v>106.67967043131191</v>
       </c>
       <c r="D36">
         <v>113.4203556833311</v>
@@ -3688,28 +3852,28 @@
         <v>108.7300628276283</v>
       </c>
       <c r="G36">
-        <v>81.29226464840715</v>
+        <v>81.292264648407155</v>
       </c>
       <c r="H36">
         <v>110.6107688586423</v>
       </c>
       <c r="I36">
-        <v>92.49985923412713</v>
+        <v>92.499859234127129</v>
       </c>
       <c r="J36">
         <v>110.4910677008176</v>
       </c>
       <c r="K36">
-        <v>103.9532021111744</v>
+        <v>103.95320211117441</v>
       </c>
       <c r="L36">
-        <v>119.8789537060891</v>
+        <v>119.87895370608911</v>
       </c>
       <c r="M36">
         <v>116.6917011830747</v>
       </c>
       <c r="N36">
-        <v>126.1482779146562</v>
+        <v>126.14827791465621</v>
       </c>
       <c r="O36">
         <v>116.1461453657991</v>
@@ -3721,7 +3885,7 @@
         <v>118.3725030535667</v>
       </c>
       <c r="R36">
-        <v>121.2921747956836</v>
+        <v>121.29217479568359</v>
       </c>
       <c r="S36">
         <v>115.5251145133963</v>
@@ -3730,40 +3894,44 @@
         <v>116.1845581929888</v>
       </c>
       <c r="U36">
-        <v>118.4442005580405</v>
+        <v>118.44420055804051</v>
       </c>
       <c r="V36">
-        <v>118.2308608542344</v>
+        <v>118.23086085423439</v>
       </c>
       <c r="W36">
         <v>116.5949965871892</v>
       </c>
       <c r="X36">
-        <v>115.8567609701739</v>
+        <v>115.85676097017389</v>
       </c>
       <c r="Y36">
         <v>114.7680405208697</v>
       </c>
       <c r="Z36">
-        <v>111.1992042275184</v>
+        <v>111.19920422751839</v>
       </c>
       <c r="AA36">
         <v>115.2870850493093</v>
       </c>
       <c r="AB36">
-        <v>115.210043688329</v>
+        <v>115.21004368832899</v>
       </c>
       <c r="AC36">
-        <v>114.2337812156865</v>
+        <v>114.23378121568651</v>
       </c>
       <c r="AD36">
-        <v>113.5547316642214</v>
+        <v>113.55473166422141</v>
       </c>
       <c r="AE36">
         <v>118.1894004342183</v>
       </c>
+      <c r="AF36">
+        <f t="shared" si="0"/>
+        <v>113.10314090117953</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3777,88 +3945,92 @@
         <v>71.71231588785848</v>
       </c>
       <c r="E37">
-        <v>75.53674257715028</v>
+        <v>75.536742577150278</v>
       </c>
       <c r="F37">
-        <v>62.3842469765672</v>
+        <v>62.384246976567198</v>
       </c>
       <c r="G37">
-        <v>95.3870405243815</v>
+        <v>95.387040524381504</v>
       </c>
       <c r="H37">
-        <v>67.80162163129532</v>
+        <v>67.801621631295319</v>
       </c>
       <c r="I37">
-        <v>66.81697248828324</v>
+        <v>66.816972488283241</v>
       </c>
       <c r="J37">
-        <v>79.09119209284096</v>
+        <v>79.091192092840956</v>
       </c>
       <c r="K37">
-        <v>73.59202713836149</v>
+        <v>73.592027138361487</v>
       </c>
       <c r="L37">
-        <v>47.75452639977352</v>
+        <v>47.754526399773518</v>
       </c>
       <c r="M37">
-        <v>66.96889825384119</v>
+        <v>66.968898253841189</v>
       </c>
       <c r="N37">
-        <v>74.7632548170111</v>
+        <v>74.763254817011102</v>
       </c>
       <c r="O37">
-        <v>71.99444784727037</v>
+        <v>71.994447847270365</v>
       </c>
       <c r="P37">
-        <v>82.77002841709472</v>
+        <v>82.770028417094721</v>
       </c>
       <c r="Q37">
-        <v>59.4330418061648</v>
+        <v>59.433041806164802</v>
       </c>
       <c r="R37">
-        <v>82.46667571914529</v>
+        <v>82.466675719145286</v>
       </c>
       <c r="S37">
-        <v>63.90074089946063</v>
+        <v>63.900740899460629</v>
       </c>
       <c r="T37">
-        <v>68.65212730377212</v>
+        <v>68.652127303772119</v>
       </c>
       <c r="U37">
-        <v>71.51758961961735</v>
+        <v>71.517589619617354</v>
       </c>
       <c r="V37">
-        <v>80.58201373445566</v>
+        <v>80.582013734455657</v>
       </c>
       <c r="W37">
-        <v>73.68994730174077</v>
+        <v>73.689947301740773</v>
       </c>
       <c r="X37">
-        <v>61.44412265085517</v>
+        <v>61.444122650855171</v>
       </c>
       <c r="Y37">
-        <v>81.79546072877964</v>
+        <v>81.795460728779645</v>
       </c>
       <c r="Z37">
-        <v>44.61895967523223</v>
+        <v>44.618959675232233</v>
       </c>
       <c r="AA37">
-        <v>58.36177134192096</v>
+        <v>58.361771341920957</v>
       </c>
       <c r="AB37">
-        <v>51.04376696359051</v>
+        <v>51.043766963590507</v>
       </c>
       <c r="AC37">
-        <v>62.92840674131199</v>
+        <v>62.928406741311989</v>
       </c>
       <c r="AD37">
-        <v>69.30129342828555</v>
+        <v>69.301293428285547</v>
       </c>
       <c r="AE37">
-        <v>70.01837556432359</v>
+        <v>70.018375564323591</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="0"/>
+        <v>71.418013455208651</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3869,22 +4041,22 @@
         <v>100.5839719670419</v>
       </c>
       <c r="D38">
-        <v>112.1294708324563</v>
+        <v>112.12947083245631</v>
       </c>
       <c r="E38">
         <v>109.1865877179977</v>
       </c>
       <c r="F38">
-        <v>110.4596457233742</v>
+        <v>110.45964572337419</v>
       </c>
       <c r="G38">
-        <v>91.6622678868828</v>
+        <v>91.662267886882802</v>
       </c>
       <c r="H38">
         <v>109.9813667930467</v>
       </c>
       <c r="I38">
-        <v>91.73864598230489</v>
+        <v>91.738645982304888</v>
       </c>
       <c r="J38">
         <v>108.3556307181742</v>
@@ -3896,16 +4068,16 @@
         <v>118.4869454834582</v>
       </c>
       <c r="M38">
-        <v>113.9502244220402</v>
+        <v>113.95022442204019</v>
       </c>
       <c r="N38">
         <v>122.2547822002613</v>
       </c>
       <c r="O38">
-        <v>113.7574173405849</v>
+        <v>113.75741734058489</v>
       </c>
       <c r="P38">
-        <v>111.9918035505277</v>
+        <v>111.99180355052771</v>
       </c>
       <c r="Q38">
         <v>117.1153277756588</v>
@@ -3914,13 +4086,13 @@
         <v>115.4181483057727</v>
       </c>
       <c r="S38">
-        <v>113.8063619523677</v>
+        <v>113.80636195236769</v>
       </c>
       <c r="T38">
         <v>111.540771693583</v>
       </c>
       <c r="U38">
-        <v>115.7017425502601</v>
+        <v>115.70174255026009</v>
       </c>
       <c r="V38">
         <v>116.3806053966897</v>
@@ -3932,16 +4104,16 @@
         <v>115.5402730111886</v>
       </c>
       <c r="Y38">
-        <v>109.7174401208243</v>
+        <v>109.71744012082431</v>
       </c>
       <c r="Z38">
         <v>110.1310653834784</v>
       </c>
       <c r="AA38">
-        <v>113.2947161536377</v>
+        <v>113.29471615363769</v>
       </c>
       <c r="AB38">
-        <v>113.986978422976</v>
+        <v>113.98697842297599</v>
       </c>
       <c r="AC38">
         <v>113.0459438311108</v>
@@ -3952,103 +4124,111 @@
       <c r="AE38">
         <v>115.9411443721914</v>
       </c>
+      <c r="AF38">
+        <f t="shared" si="0"/>
+        <v>111.45968944608593</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>81.57540606702489</v>
+        <v>81.575406067024886</v>
       </c>
       <c r="C39">
-        <v>68.83742547359927</v>
+        <v>68.837425473599268</v>
       </c>
       <c r="D39">
-        <v>55.98383788350586</v>
+        <v>55.983837883505863</v>
       </c>
       <c r="E39">
-        <v>51.13857297415849</v>
+        <v>51.138572974158492</v>
       </c>
       <c r="F39">
-        <v>44.6689209630141</v>
+        <v>44.668920963014102</v>
       </c>
       <c r="G39">
-        <v>70.4677268033625</v>
+        <v>70.467726803362496</v>
       </c>
       <c r="H39">
-        <v>50.34130903972734</v>
+        <v>50.341309039727342</v>
       </c>
       <c r="I39">
-        <v>43.40968833874147</v>
+        <v>43.409688338741468</v>
       </c>
       <c r="J39">
-        <v>44.57165929713634</v>
+        <v>44.571659297136343</v>
       </c>
       <c r="K39">
-        <v>48.74740911918636</v>
+        <v>48.747409119186358</v>
       </c>
       <c r="L39">
         <v>50.11954459090785</v>
       </c>
       <c r="M39">
-        <v>52.49761899362675</v>
+        <v>52.497618993626752</v>
       </c>
       <c r="N39">
-        <v>55.25923753847255</v>
+        <v>55.259237538472547</v>
       </c>
       <c r="O39">
-        <v>37.62524224728217</v>
+        <v>37.625242247282173</v>
       </c>
       <c r="P39">
-        <v>65.95433236970361</v>
+        <v>65.954332369703607</v>
       </c>
       <c r="Q39">
-        <v>55.40826220730383</v>
+        <v>55.408262207303828</v>
       </c>
       <c r="R39">
-        <v>53.56538061098792</v>
+        <v>53.565380610987923</v>
       </c>
       <c r="S39">
         <v>47.14538683688999</v>
       </c>
       <c r="T39">
-        <v>44.06396274167815</v>
+        <v>44.063962741678147</v>
       </c>
       <c r="U39">
         <v>61.91980700874317</v>
       </c>
       <c r="V39">
-        <v>48.97054812163464</v>
+        <v>48.970548121634643</v>
       </c>
       <c r="W39">
-        <v>59.41154577044207</v>
+        <v>59.411545770442068</v>
       </c>
       <c r="X39">
-        <v>41.5652098114116</v>
+        <v>41.565209811411599</v>
       </c>
       <c r="Y39">
-        <v>58.16266700670916</v>
+        <v>58.162667006709157</v>
       </c>
       <c r="Z39">
-        <v>52.27416705856408</v>
+        <v>52.274167058564082</v>
       </c>
       <c r="AA39">
-        <v>34.63785862318858</v>
+        <v>34.637858623188578</v>
       </c>
       <c r="AB39">
-        <v>46.58999467875766</v>
+        <v>46.589994678757662</v>
       </c>
       <c r="AC39">
-        <v>50.21015729743667</v>
+        <v>50.210157297436673</v>
       </c>
       <c r="AD39">
-        <v>45.86245287087612</v>
+        <v>45.862452870876119</v>
       </c>
       <c r="AE39">
-        <v>39.01011487422205</v>
+        <v>39.010114874222047</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="0"/>
+        <v>51.999848240609829</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4056,7 +4236,7 @@
         <v>117.7006819047083</v>
       </c>
       <c r="C40">
-        <v>99.33034898341324</v>
+        <v>99.330348983413245</v>
       </c>
       <c r="D40">
         <v>111.6189808007581</v>
@@ -4065,43 +4245,43 @@
         <v>108.7344816514062</v>
       </c>
       <c r="F40">
-        <v>110.4249250056345</v>
+        <v>110.42492500563451</v>
       </c>
       <c r="G40">
-        <v>90.2026942040351</v>
+        <v>90.202694204035097</v>
       </c>
       <c r="H40">
-        <v>109.8537261354085</v>
+        <v>109.85372613540849</v>
       </c>
       <c r="I40">
-        <v>91.28210051811911</v>
+        <v>91.282100518119108</v>
       </c>
       <c r="J40">
-        <v>108.3413658881039</v>
+        <v>108.34136588810389</v>
       </c>
       <c r="K40">
-        <v>103.6257664828911</v>
+        <v>103.62576648289109</v>
       </c>
       <c r="L40">
         <v>118.9816052834779</v>
       </c>
       <c r="M40">
-        <v>114.0867497053595</v>
+        <v>114.08674970535949</v>
       </c>
       <c r="N40">
         <v>122.3424369342053</v>
       </c>
       <c r="O40">
-        <v>113.6792133226944</v>
+        <v>113.67921332269439</v>
       </c>
       <c r="P40">
-        <v>112.3120304664643</v>
+        <v>112.31203046646429</v>
       </c>
       <c r="Q40">
-        <v>118.2778112115709</v>
+        <v>118.27781121157091</v>
       </c>
       <c r="R40">
-        <v>115.7436553336726</v>
+        <v>115.74365533367261</v>
       </c>
       <c r="S40">
         <v>113.8275033585176</v>
@@ -4116,7 +4296,7 @@
         <v>116.12561670091</v>
       </c>
       <c r="W40">
-        <v>115.0992212361433</v>
+        <v>115.09922123614329</v>
       </c>
       <c r="X40">
         <v>115.4088068924263</v>
@@ -4128,13 +4308,13 @@
         <v>110.5822068832354</v>
       </c>
       <c r="AA40">
-        <v>113.4117567208092</v>
+        <v>113.41175672080919</v>
       </c>
       <c r="AB40">
         <v>114.1629865586916</v>
       </c>
       <c r="AC40">
-        <v>113.293061165869</v>
+        <v>113.29306116586901</v>
       </c>
       <c r="AD40">
         <v>109.8417659256563</v>
@@ -4142,8 +4322,12 @@
       <c r="AE40">
         <v>115.8188465161579</v>
       </c>
+      <c r="AF40">
+        <f t="shared" si="0"/>
+        <v>111.39148698880103</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4151,91 +4335,95 @@
         <v>81.75761305020265</v>
       </c>
       <c r="C41">
-        <v>72.15353638249479</v>
+        <v>72.153536382494792</v>
       </c>
       <c r="D41">
-        <v>59.62923639736915</v>
+        <v>59.629236397369148</v>
       </c>
       <c r="E41">
-        <v>54.87483390255804</v>
+        <v>54.874833902558038</v>
       </c>
       <c r="F41">
-        <v>50.07559389729359</v>
+        <v>50.075593897293587</v>
       </c>
       <c r="G41">
-        <v>75.6139282528909</v>
+        <v>75.613928252890901</v>
       </c>
       <c r="H41">
-        <v>53.03671585955023</v>
+        <v>53.036715859550227</v>
       </c>
       <c r="I41">
-        <v>43.61192497471305</v>
+        <v>43.611924974713048</v>
       </c>
       <c r="J41">
-        <v>57.47991043979336</v>
+        <v>57.479910439793358</v>
       </c>
       <c r="K41">
-        <v>45.74336814410004</v>
+        <v>45.743368144100039</v>
       </c>
       <c r="L41">
-        <v>49.86035185896706</v>
+        <v>49.860351858967057</v>
       </c>
       <c r="M41">
-        <v>42.59713165226034</v>
+        <v>42.597131652260337</v>
       </c>
       <c r="N41">
-        <v>54.87011177924341</v>
+        <v>54.870111779243409</v>
       </c>
       <c r="O41">
-        <v>50.27857292956249</v>
+        <v>50.278572929562493</v>
       </c>
       <c r="P41">
-        <v>58.8013516709721</v>
+        <v>58.801351670972103</v>
       </c>
       <c r="Q41">
-        <v>57.73895096322182</v>
+        <v>57.738950963221818</v>
       </c>
       <c r="R41">
-        <v>59.90895870680222</v>
+        <v>59.908958706802217</v>
       </c>
       <c r="S41">
-        <v>48.47967250130031</v>
+        <v>48.479672501300307</v>
       </c>
       <c r="T41">
-        <v>40.5499306411244</v>
+        <v>40.549930641124398</v>
       </c>
       <c r="U41">
-        <v>54.89350485257796</v>
+        <v>54.893504852577962</v>
       </c>
       <c r="V41">
-        <v>62.018394448744</v>
+        <v>62.018394448743997</v>
       </c>
       <c r="W41">
         <v>56.6063941102652</v>
       </c>
       <c r="X41">
-        <v>49.26395741310274</v>
+        <v>49.263957413102737</v>
       </c>
       <c r="Y41">
-        <v>64.20568348414857</v>
+        <v>64.205683484148565</v>
       </c>
       <c r="Z41">
-        <v>42.55000122405012</v>
+        <v>42.550001224050121</v>
       </c>
       <c r="AA41">
-        <v>46.71386192377305</v>
+        <v>46.713861923773052</v>
       </c>
       <c r="AB41">
         <v>51.03675146401855</v>
       </c>
       <c r="AC41">
-        <v>49.33328934401192</v>
+        <v>49.333289344011916</v>
       </c>
       <c r="AD41">
-        <v>45.88374121988456</v>
+        <v>45.883741219884563</v>
       </c>
       <c r="AE41">
-        <v>51.5886171230308</v>
+        <v>51.588617123030801</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="0"/>
+        <v>54.371863020400923</v>
       </c>
     </row>
   </sheetData>
